--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T16:35:02+00:00</t>
+    <t>2022-06-06T19:02:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T19:02:23+00:00</t>
+    <t>2022-06-06T20:42:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T20:42:46+00:00</t>
+    <t>2022-06-14T16:27:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-14T16:27:05+00:00</t>
+    <t>2022-07-12T18:21:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1216,44 +1216,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.00390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.21484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="39.0078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="105.953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="105.95703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="168.1875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="168.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="49.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="93.55859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="24.9765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="42.97265625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="42.9765625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-12T18:21:32+00:00</t>
+    <t>2022-07-13T16:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T16:07:41+00:00</t>
+    <t>2022-07-20T21:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:33:26+00:00</t>
+    <t>2022-07-20T21:53:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:53:07+00:00</t>
+    <t>2022-07-20T21:57:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:57:20+00:00</t>
+    <t>2022-07-25T23:14:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:19:23+00:00</t>
+    <t>2022-07-26T13:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:53:56+00:00</t>
+    <t>2022-07-26T20:21:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:21:45+00:00</t>
+    <t>2022-07-26T20:30:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:30:24+00:00</t>
+    <t>2022-07-26T20:32:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:32:00+00:00</t>
+    <t>2022-07-26T20:38:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:38:10+00:00</t>
+    <t>2022-07-26T20:48:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:48:14+00:00</t>
+    <t>2022-07-26T20:53:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:53:01+00:00</t>
+    <t>2022-07-26T20:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:56:12+00:00</t>
+    <t>2022-07-26T20:57:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:57:39+00:00</t>
+    <t>2022-07-26T21:21:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:21:24+00:00</t>
+    <t>2022-07-26T21:40:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:40:22+00:00</t>
+    <t>2022-07-26T21:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:41:29+00:00</t>
+    <t>2022-07-26T21:42:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:42:01+00:00</t>
+    <t>2022-07-26T21:42:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:42:43+00:00</t>
+    <t>2022-07-26T21:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:43:18+00:00</t>
+    <t>2022-08-15T19:44:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T19:44:05+00:00</t>
+    <t>2022-08-15T20:51:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T20:51:57+00:00</t>
+    <t>2022-08-16T21:28:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T21:28:14+00:00</t>
+    <t>2022-08-23T21:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3956" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3956" uniqueCount="279">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T21:30:49+00:00</t>
+    <t>2022-09-08T16:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -277,7 +277,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -477,6 +477,10 @@
   </si>
   <si>
     <t>Bundle.link.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -2507,13 +2511,13 @@
         <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2564,7 +2568,7 @@
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -2582,7 +2586,7 @@
         <v>75</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>75</v>
@@ -2593,11 +2597,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2616,16 +2620,16 @@
         <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2675,7 +2679,7 @@
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
@@ -2687,13 +2691,13 @@
         <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>75</v>
@@ -2704,11 +2708,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2727,19 +2731,19 @@
         <v>85</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>75</v>
@@ -2788,7 +2792,7 @@
         <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
@@ -2800,7 +2804,7 @@
         <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>75</v>
@@ -2817,7 +2821,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2840,13 +2844,13 @@
         <v>85</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2897,7 +2901,7 @@
         <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>84</v>
@@ -2926,7 +2930,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2952,10 +2956,10 @@
         <v>98</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3006,7 +3010,7 @@
         <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>84</v>
@@ -3035,7 +3039,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3043,7 +3047,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>77</v>
@@ -3061,10 +3065,10 @@
         <v>142</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3103,19 +3107,19 @@
         <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>76</v>
@@ -3127,7 +3131,7 @@
         <v>75</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>75</v>
@@ -3144,7 +3148,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3167,13 +3171,13 @@
         <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3224,7 +3228,7 @@
         <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>76</v>
@@ -3242,7 +3246,7 @@
         <v>75</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>75</v>
@@ -3253,11 +3257,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3276,16 +3280,16 @@
         <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3335,7 +3339,7 @@
         <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
@@ -3347,13 +3351,13 @@
         <v>75</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>75</v>
@@ -3364,11 +3368,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3387,19 +3391,19 @@
         <v>85</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>75</v>
@@ -3448,7 +3452,7 @@
         <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>76</v>
@@ -3460,7 +3464,7 @@
         <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>75</v>
@@ -3477,7 +3481,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3503,10 +3507,10 @@
         <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3557,7 +3561,7 @@
         <v>75</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
@@ -3586,7 +3590,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3612,13 +3616,13 @@
         <v>98</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3668,7 +3672,7 @@
         <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
@@ -3697,7 +3701,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3720,13 +3724,13 @@
         <v>85</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3777,7 +3781,7 @@
         <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
@@ -3806,7 +3810,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3832,10 +3836,10 @@
         <v>142</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3886,7 +3890,7 @@
         <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
@@ -3895,7 +3899,7 @@
         <v>84</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>96</v>
@@ -3915,7 +3919,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3938,13 +3942,13 @@
         <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3995,7 +3999,7 @@
         <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
@@ -4013,7 +4017,7 @@
         <v>75</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>75</v>
@@ -4024,11 +4028,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4047,16 +4051,16 @@
         <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4106,7 +4110,7 @@
         <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
@@ -4118,13 +4122,13 @@
         <v>75</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>75</v>
@@ -4135,11 +4139,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4158,19 +4162,19 @@
         <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>75</v>
@@ -4219,7 +4223,7 @@
         <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -4231,7 +4235,7 @@
         <v>75</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>75</v>
@@ -4248,7 +4252,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4274,13 +4278,13 @@
         <v>104</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4309,10 +4313,10 @@
         <v>124</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>75</v>
@@ -4330,7 +4334,7 @@
         <v>75</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
@@ -4359,7 +4363,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4382,16 +4386,16 @@
         <v>85</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4441,7 +4445,7 @@
         <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
@@ -4470,7 +4474,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4496,10 +4500,10 @@
         <v>142</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4550,7 +4554,7 @@
         <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -4559,7 +4563,7 @@
         <v>84</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>96</v>
@@ -4579,7 +4583,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4602,13 +4606,13 @@
         <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4659,7 +4663,7 @@
         <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
@@ -4677,7 +4681,7 @@
         <v>75</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>75</v>
@@ -4688,11 +4692,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4711,16 +4715,16 @@
         <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4770,7 +4774,7 @@
         <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
@@ -4782,13 +4786,13 @@
         <v>75</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>75</v>
@@ -4799,11 +4803,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4822,19 +4826,19 @@
         <v>85</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>75</v>
@@ -4883,7 +4887,7 @@
         <v>75</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
@@ -4895,7 +4899,7 @@
         <v>75</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>75</v>
@@ -4912,7 +4916,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4938,10 +4942,10 @@
         <v>104</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4971,10 +4975,10 @@
         <v>124</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>75</v>
@@ -4992,7 +4996,7 @@
         <v>75</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>84</v>
@@ -5021,7 +5025,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5047,13 +5051,13 @@
         <v>98</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5103,7 +5107,7 @@
         <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>84</v>
@@ -5132,7 +5136,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5155,13 +5159,13 @@
         <v>85</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5212,7 +5216,7 @@
         <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
@@ -5241,7 +5245,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5267,10 +5271,10 @@
         <v>129</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5321,7 +5325,7 @@
         <v>75</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
@@ -5350,7 +5354,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5373,13 +5377,13 @@
         <v>85</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5430,7 +5434,7 @@
         <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
@@ -5459,7 +5463,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5482,13 +5486,13 @@
         <v>85</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5539,7 +5543,7 @@
         <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
@@ -5568,7 +5572,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5594,10 +5598,10 @@
         <v>142</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5648,7 +5652,7 @@
         <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
@@ -5657,7 +5661,7 @@
         <v>84</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>96</v>
@@ -5677,7 +5681,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5700,13 +5704,13 @@
         <v>75</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5757,7 +5761,7 @@
         <v>75</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
@@ -5775,7 +5779,7 @@
         <v>75</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>75</v>
@@ -5786,11 +5790,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5809,16 +5813,16 @@
         <v>75</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5868,7 +5872,7 @@
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
@@ -5880,13 +5884,13 @@
         <v>75</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>75</v>
@@ -5897,11 +5901,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -5920,19 +5924,19 @@
         <v>85</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>75</v>
@@ -5981,7 +5985,7 @@
         <v>75</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
@@ -5993,7 +5997,7 @@
         <v>75</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>75</v>
@@ -6010,7 +6014,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6033,13 +6037,13 @@
         <v>85</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6090,7 +6094,7 @@
         <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>84</v>
@@ -6119,7 +6123,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6145,10 +6149,10 @@
         <v>98</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6199,7 +6203,7 @@
         <v>75</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
@@ -6228,7 +6232,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6251,16 +6255,16 @@
         <v>85</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6310,7 +6314,7 @@
         <v>75</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
@@ -6339,7 +6343,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6365,13 +6369,13 @@
         <v>129</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6421,7 +6425,7 @@
         <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -6450,7 +6454,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6473,16 +6477,16 @@
         <v>85</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6532,7 +6536,7 @@
         <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
@@ -6561,10 +6565,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>75</v>
@@ -6589,10 +6593,10 @@
         <v>142</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6643,7 +6647,7 @@
         <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
@@ -6655,7 +6659,7 @@
         <v>75</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>75</v>
@@ -6672,7 +6676,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6695,13 +6699,13 @@
         <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6752,7 +6756,7 @@
         <v>75</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
@@ -6770,7 +6774,7 @@
         <v>75</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>75</v>
@@ -6781,11 +6785,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6804,16 +6808,16 @@
         <v>75</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -6863,7 +6867,7 @@
         <v>75</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>76</v>
@@ -6875,13 +6879,13 @@
         <v>75</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>75</v>
@@ -6892,11 +6896,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -6915,19 +6919,19 @@
         <v>85</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>75</v>
@@ -6976,7 +6980,7 @@
         <v>75</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
@@ -6988,7 +6992,7 @@
         <v>75</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>75</v>
@@ -7005,7 +7009,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7031,10 +7035,10 @@
         <v>75</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7085,7 +7089,7 @@
         <v>75</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
@@ -7114,7 +7118,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7140,13 +7144,13 @@
         <v>98</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7196,7 +7200,7 @@
         <v>75</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
@@ -7225,7 +7229,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7248,13 +7252,13 @@
         <v>85</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7305,7 +7309,7 @@
         <v>75</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
@@ -7334,7 +7338,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7360,10 +7364,10 @@
         <v>142</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7414,7 +7418,7 @@
         <v>75</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
@@ -7423,7 +7427,7 @@
         <v>84</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>96</v>
@@ -7443,7 +7447,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7466,13 +7470,13 @@
         <v>75</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7523,7 +7527,7 @@
         <v>75</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>76</v>
@@ -7541,7 +7545,7 @@
         <v>75</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>75</v>
@@ -7552,11 +7556,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7575,16 +7579,16 @@
         <v>75</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -7634,7 +7638,7 @@
         <v>75</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>76</v>
@@ -7646,13 +7650,13 @@
         <v>75</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>75</v>
@@ -7663,11 +7667,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7686,19 +7690,19 @@
         <v>85</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>75</v>
@@ -7747,7 +7751,7 @@
         <v>75</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>76</v>
@@ -7759,7 +7763,7 @@
         <v>75</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>75</v>
@@ -7776,7 +7780,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7802,13 +7806,13 @@
         <v>104</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -7837,10 +7841,10 @@
         <v>124</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>75</v>
@@ -7858,7 +7862,7 @@
         <v>75</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>76</v>
@@ -7887,7 +7891,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7910,16 +7914,16 @@
         <v>85</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -7969,7 +7973,7 @@
         <v>75</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
@@ -7998,7 +8002,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8024,10 +8028,10 @@
         <v>142</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8078,7 +8082,7 @@
         <v>75</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
@@ -8087,7 +8091,7 @@
         <v>84</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>96</v>
@@ -8107,7 +8111,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8130,13 +8134,13 @@
         <v>75</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8187,7 +8191,7 @@
         <v>75</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
@@ -8205,7 +8209,7 @@
         <v>75</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>75</v>
@@ -8216,11 +8220,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8239,16 +8243,16 @@
         <v>75</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8298,7 +8302,7 @@
         <v>75</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
@@ -8310,13 +8314,13 @@
         <v>75</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>75</v>
@@ -8327,11 +8331,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8350,19 +8354,19 @@
         <v>85</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>75</v>
@@ -8411,7 +8415,7 @@
         <v>75</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>76</v>
@@ -8423,7 +8427,7 @@
         <v>75</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>75</v>
@@ -8440,7 +8444,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8466,10 +8470,10 @@
         <v>104</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8499,10 +8503,10 @@
         <v>124</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>75</v>
@@ -8520,7 +8524,7 @@
         <v>75</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>84</v>
@@ -8549,7 +8553,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8575,13 +8579,13 @@
         <v>98</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8631,7 +8635,7 @@
         <v>75</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>84</v>
@@ -8660,7 +8664,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8683,13 +8687,13 @@
         <v>85</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8740,7 +8744,7 @@
         <v>75</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>76</v>
@@ -8769,7 +8773,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8795,10 +8799,10 @@
         <v>129</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8849,7 +8853,7 @@
         <v>75</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>76</v>
@@ -8878,7 +8882,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8901,13 +8905,13 @@
         <v>85</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8958,7 +8962,7 @@
         <v>75</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>76</v>
@@ -8987,7 +8991,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9010,13 +9014,13 @@
         <v>85</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9067,7 +9071,7 @@
         <v>75</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>76</v>
@@ -9096,7 +9100,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9122,10 +9126,10 @@
         <v>142</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9176,7 +9180,7 @@
         <v>75</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>76</v>
@@ -9185,7 +9189,7 @@
         <v>84</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>96</v>
@@ -9205,7 +9209,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9228,13 +9232,13 @@
         <v>75</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9285,7 +9289,7 @@
         <v>75</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>76</v>
@@ -9303,7 +9307,7 @@
         <v>75</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>75</v>
@@ -9314,11 +9318,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9337,16 +9341,16 @@
         <v>75</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -9396,7 +9400,7 @@
         <v>75</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>76</v>
@@ -9408,13 +9412,13 @@
         <v>75</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>75</v>
@@ -9425,11 +9429,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -9448,19 +9452,19 @@
         <v>85</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>75</v>
@@ -9509,7 +9513,7 @@
         <v>75</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>76</v>
@@ -9521,7 +9525,7 @@
         <v>75</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>75</v>
@@ -9538,7 +9542,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9561,13 +9565,13 @@
         <v>85</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9618,7 +9622,7 @@
         <v>75</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>84</v>
@@ -9647,7 +9651,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9673,10 +9677,10 @@
         <v>98</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9727,7 +9731,7 @@
         <v>75</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>76</v>
@@ -9756,7 +9760,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9779,16 +9783,16 @@
         <v>85</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -9838,7 +9842,7 @@
         <v>75</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>76</v>
@@ -9867,7 +9871,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9893,13 +9897,13 @@
         <v>129</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -9949,7 +9953,7 @@
         <v>75</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>76</v>
@@ -9978,7 +9982,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10001,16 +10005,16 @@
         <v>85</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10060,7 +10064,7 @@
         <v>75</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>76</v>
@@ -10089,10 +10093,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>75</v>
@@ -10117,10 +10121,10 @@
         <v>142</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10171,7 +10175,7 @@
         <v>75</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>76</v>
@@ -10183,7 +10187,7 @@
         <v>75</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>75</v>
@@ -10200,7 +10204,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10223,13 +10227,13 @@
         <v>75</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10280,7 +10284,7 @@
         <v>75</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>76</v>
@@ -10298,7 +10302,7 @@
         <v>75</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>75</v>
@@ -10309,11 +10313,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10332,16 +10336,16 @@
         <v>75</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -10391,7 +10395,7 @@
         <v>75</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>76</v>
@@ -10403,13 +10407,13 @@
         <v>75</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>75</v>
@@ -10420,11 +10424,11 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -10443,19 +10447,19 @@
         <v>85</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>75</v>
@@ -10504,7 +10508,7 @@
         <v>75</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>76</v>
@@ -10516,7 +10520,7 @@
         <v>75</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>75</v>
@@ -10533,7 +10537,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10559,10 +10563,10 @@
         <v>75</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10613,7 +10617,7 @@
         <v>75</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>76</v>
@@ -10642,7 +10646,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10668,13 +10672,13 @@
         <v>98</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -10724,7 +10728,7 @@
         <v>75</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>76</v>
@@ -10753,7 +10757,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10776,16 +10780,16 @@
         <v>75</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -10835,7 +10839,7 @@
         <v>75</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>76</v>
@@ -10850,10 +10854,10 @@
         <v>75</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>75</v>
@@ -10864,7 +10868,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10890,10 +10894,10 @@
         <v>142</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -10944,7 +10948,7 @@
         <v>75</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>76</v>
@@ -10953,7 +10957,7 @@
         <v>84</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>96</v>
@@ -10973,7 +10977,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -10996,13 +11000,13 @@
         <v>75</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11053,7 +11057,7 @@
         <v>75</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>76</v>
@@ -11071,7 +11075,7 @@
         <v>75</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>75</v>
@@ -11082,11 +11086,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11105,16 +11109,16 @@
         <v>75</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -11164,7 +11168,7 @@
         <v>75</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>76</v>
@@ -11176,13 +11180,13 @@
         <v>75</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>75</v>
@@ -11193,11 +11197,11 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11216,19 +11220,19 @@
         <v>85</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>75</v>
@@ -11277,7 +11281,7 @@
         <v>75</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>76</v>
@@ -11289,7 +11293,7 @@
         <v>75</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>75</v>
@@ -11306,7 +11310,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11332,13 +11336,13 @@
         <v>104</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -11367,10 +11371,10 @@
         <v>124</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>75</v>
@@ -11388,7 +11392,7 @@
         <v>75</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>76</v>
@@ -11417,7 +11421,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11440,16 +11444,16 @@
         <v>85</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -11499,7 +11503,7 @@
         <v>75</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>76</v>
@@ -11528,7 +11532,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11554,10 +11558,10 @@
         <v>142</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -11608,7 +11612,7 @@
         <v>75</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>76</v>
@@ -11617,7 +11621,7 @@
         <v>84</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>96</v>
@@ -11637,7 +11641,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11660,13 +11664,13 @@
         <v>75</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -11717,7 +11721,7 @@
         <v>75</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>76</v>
@@ -11735,7 +11739,7 @@
         <v>75</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>75</v>
@@ -11746,11 +11750,11 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -11769,16 +11773,16 @@
         <v>75</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -11828,7 +11832,7 @@
         <v>75</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>76</v>
@@ -11840,13 +11844,13 @@
         <v>75</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>75</v>
@@ -11857,11 +11861,11 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -11880,19 +11884,19 @@
         <v>85</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>75</v>
@@ -11941,7 +11945,7 @@
         <v>75</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>76</v>
@@ -11953,7 +11957,7 @@
         <v>75</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>75</v>
@@ -11970,7 +11974,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -11996,10 +12000,10 @@
         <v>104</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12029,10 +12033,10 @@
         <v>124</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>75</v>
@@ -12050,7 +12054,7 @@
         <v>75</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>84</v>
@@ -12079,7 +12083,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12105,13 +12109,13 @@
         <v>98</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -12161,7 +12165,7 @@
         <v>75</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>84</v>
@@ -12190,7 +12194,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12213,13 +12217,13 @@
         <v>85</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -12270,7 +12274,7 @@
         <v>75</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>76</v>
@@ -12299,7 +12303,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12325,10 +12329,10 @@
         <v>129</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -12379,7 +12383,7 @@
         <v>75</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>76</v>
@@ -12408,7 +12412,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12431,13 +12435,13 @@
         <v>85</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -12488,7 +12492,7 @@
         <v>75</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>76</v>
@@ -12517,7 +12521,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12540,13 +12544,13 @@
         <v>85</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -12597,7 +12601,7 @@
         <v>75</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>76</v>
@@ -12626,7 +12630,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12652,10 +12656,10 @@
         <v>142</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -12706,7 +12710,7 @@
         <v>75</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>76</v>
@@ -12715,7 +12719,7 @@
         <v>84</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>96</v>
@@ -12735,7 +12739,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -12758,13 +12762,13 @@
         <v>75</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -12815,7 +12819,7 @@
         <v>75</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>76</v>
@@ -12833,7 +12837,7 @@
         <v>75</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>75</v>
@@ -12844,11 +12848,11 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -12867,16 +12871,16 @@
         <v>75</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -12926,7 +12930,7 @@
         <v>75</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>76</v>
@@ -12938,13 +12942,13 @@
         <v>75</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>75</v>
@@ -12955,11 +12959,11 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -12978,19 +12982,19 @@
         <v>85</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>75</v>
@@ -13039,7 +13043,7 @@
         <v>75</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>76</v>
@@ -13051,7 +13055,7 @@
         <v>75</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>75</v>
@@ -13068,7 +13072,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13091,13 +13095,13 @@
         <v>85</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -13148,7 +13152,7 @@
         <v>75</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>84</v>
@@ -13177,7 +13181,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13203,10 +13207,10 @@
         <v>98</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -13257,7 +13261,7 @@
         <v>75</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>76</v>
@@ -13286,7 +13290,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13309,16 +13313,16 @@
         <v>85</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
@@ -13368,7 +13372,7 @@
         <v>75</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>76</v>
@@ -13397,7 +13401,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13423,13 +13427,13 @@
         <v>129</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
@@ -13479,7 +13483,7 @@
         <v>75</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>76</v>
@@ -13508,7 +13512,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -13531,16 +13535,16 @@
         <v>85</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -13590,7 +13594,7 @@
         <v>75</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>76</v>
@@ -13619,7 +13623,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -13642,19 +13646,19 @@
         <v>85</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>75</v>
@@ -13703,7 +13707,7 @@
         <v>75</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:47:29+00:00</t>
+    <t>2022-09-08T16:52:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:52:01+00:00</t>
+    <t>2022-09-08T20:49:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -259,7 +259,7 @@
   </si>
   <si>
     <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
-bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}</t>
+bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}invariant-relatedperson-1:RelatedPerson resources are not allowed in this Bundle. {entry.resource.ofType(RelatedPerson).count()=0}</t>
   </si>
   <si>
     <t>N/A</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T20:49:17+00:00</t>
+    <t>2022-09-08T22:16:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -259,7 +259,7 @@
   </si>
   <si>
     <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
-bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}invariant-relatedperson-1:RelatedPerson resources are not allowed in this Bundle. {entry.resource.ofType(RelatedPerson).count()=0}</t>
+bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}</t>
   </si>
   <si>
     <t>N/A</t>
@@ -3050,7 +3050,7 @@
         <v>173</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3956" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3956" uniqueCount="285">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T22:16:21+00:00</t>
+    <t>2022-09-20T22:52:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -848,16 +848,6 @@
 This outcome is not used for error responses in batch/transaction, only for hints and warnings. In a batch operation, the error will be in Bundle.entry.response, and for transaction, there will be a single OperationOutcome instead of a bundle in the case of an error.</t>
   </si>
   <si>
-    <t>operation</t>
-  </si>
-  <si>
-    <t>Parameters resource with update instructions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameters
-</t>
-  </si>
-  <si>
     <t>parameters</t>
   </si>
   <si>
@@ -875,6 +865,36 @@
   </si>
   <si>
     <t>The parameters that may be used are defined by the OperationDefinition resource.</t>
+  </si>
+  <si>
+    <t>patient</t>
+  </si>
+  <si>
+    <t>Updated Patient.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubjectOfCare Client Resident
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-update-patient}
+</t>
+  </si>
+  <si>
+    <t>Information about an individual or animal receiving health care services</t>
+  </si>
+  <si>
+    <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
+    <t>Patient[classCode=PAT]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument.recordTarget.patientRole</t>
   </si>
   <si>
     <t>Bundle.signature</t>
@@ -1222,7 +1242,7 @@
   <cols>
     <col min="1" max="1" width="39.0078125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="28.78515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -7249,18 +7269,20 @@
         <v>75</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>266</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>192</v>
+        <v>267</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>75</v>
@@ -7324,10 +7346,10 @@
         <v>75</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>75</v>
@@ -10096,7 +10118,7 @@
         <v>172</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>75</v>
@@ -10121,7 +10143,7 @@
         <v>142</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>175</v>
@@ -10761,7 +10783,7 @@
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>75</v>
+        <v>272</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -10780,17 +10802,15 @@
         <v>75</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>75</v>
@@ -10851,16 +10871,16 @@
         <v>75</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>75</v>
+        <v>276</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>151</v>
+        <v>277</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>75</v>
+        <v>278</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>75</v>
@@ -13623,7 +13643,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -13646,19 +13666,19 @@
         <v>85</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>75</v>
@@ -13707,7 +13727,7 @@
         <v>75</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T22:52:25+00:00</t>
+    <t>2022-09-21T21:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -259,7 +259,7 @@
   </si>
   <si>
     <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
-bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}</t>
+bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}invariant-update-1:When Updating a Patient with the UpdatePatient Operation at least one of name, telecom, gender, address, birthDate or deceased attributes must be present. {entry.resource.ofType(Patient).name.count()&gt;=1 or entry.resource.ofType(Patient).telecom.count()&gt;=1 or entry.resource.ofType(Patient).gender.count() &gt;=1 or entry.resource.ofType(Patient).deceased[x].count()&gt;=1 or entry.resource.ofType(Patient).address.count()&gt;=1 or entry.resource.ofType(Patient).communication.count()&gt;=1}</t>
   </si>
   <si>
     <t>N/A</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -39,7 +39,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>UpdateRequestBundle</t>
+    <t>PartialUpdateRequestBundle</t>
   </si>
   <si>
     <t>Title</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T21:21:33+00:00</t>
+    <t>2022-09-22T20:32:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T20:32:21+00:00</t>
+    <t>2022-10-04T16:21:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-04T16:21:03+00:00</t>
+    <t>2022-10-05T16:43:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-05T16:43:24+00:00</t>
+    <t>2022-10-05T17:01:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3956" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3956" uniqueCount="284">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-05T17:01:44+00:00</t>
+    <t>2022-10-14T20:19:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -256,10 +256,6 @@
   </si>
   <si>
     <t>A container for a collection of resources.</t>
-  </si>
-  <si>
-    <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
-bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}invariant-update-1:When Updating a Patient with the UpdatePatient Operation at least one of name, telecom, gender, address, birthDate or deceased attributes must be present. {entry.resource.ofType(Patient).name.count()&gt;=1 or entry.resource.ofType(Patient).telecom.count()&gt;=1 or entry.resource.ofType(Patient).gender.count() &gt;=1 or entry.resource.ofType(Patient).deceased[x].count()&gt;=1 or entry.resource.ofType(Patient).address.count()&gt;=1 or entry.resource.ofType(Patient).communication.count()&gt;=1}</t>
   </si>
   <si>
     <t>N/A</t>
@@ -582,10 +578,6 @@
     <t>open</t>
   </si>
   <si>
-    <t>bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}
-bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
-  </si>
-  <si>
     <t>Bundle.entry.id</t>
   </si>
   <si>
@@ -854,6 +846,10 @@
     <t>Metadata in parameters</t>
   </si>
   <si>
+    <t>bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}
+bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+  </si>
+  <si>
     <t xml:space="preserve">Parameters {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-metadata-parameters-in}
 </t>
   </si>
@@ -881,14 +877,14 @@
 </t>
   </si>
   <si>
-    <t>Information about an individual or animal receiving health care services</t>
-  </si>
-  <si>
-    <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.</t>
+    <t>Patient Profile</t>
+  </si>
+  <si>
+    <t>The Patient Profile is based upon the core FHIR Patient Resource</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}invariant-name-use-1:Each type of allowed Name.use can only be used once. {name.where(use = 'nickname').count()&lt;=1 and name.where(use = 'usual').count()&lt;=1 and name.where(use = 'official').count()&lt;=1}invariant-address-type-1:Address.type, if both, must not include any other types of addresses, i.e. no postal and no physical. {address.where(type = 'both').count()&gt;=1 implies (address.where(type = 'physical').count()=0 and address.where(type = 'postal').count()=0)}invariant-address-type-2:Each Address.type, if Address.type is NOT both, must be present no more than once. {address.where(type = 'both').count()=0 implies (address.where(type = 'physical').count()&lt;=1 and address.where(type = 'postal').count()&lt;=1)}invariant-telecom-phone-use-1:Each type of allowed Telecom.use for phone systems can only be used once. {telecom.where(use = 'home' and system='phone').count()&lt;=1 and telecom.where(use = 'work' and system='phone').count()&lt;=1 and telecom.where(use = 'mobile' and system='phone').count()&lt;=1}invariant-telecom-email-use-1:Each type of allowed Telecom.use for email systems can only be used once. {telecom.where(use = 'home' and system='email').count()&lt;=1 and telecom.where(use = 'work' and system='email').count()&lt;=1 and telecom.where(use = 'mobile' and system='email').count()&lt;=1}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -1494,16 +1490,16 @@
         <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>75</v>
@@ -1511,7 +1507,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1522,28 +1518,28 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1593,13 +1589,13 @@
         <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>75</v>
@@ -1622,7 +1618,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1633,25 +1629,25 @@
         <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1702,19 +1698,19 @@
         <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>75</v>
@@ -1731,7 +1727,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1742,28 +1738,28 @@
         <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1813,19 +1809,19 @@
         <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>75</v>
@@ -1842,7 +1838,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1853,7 +1849,7 @@
         <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>75</v>
@@ -1865,16 +1861,16 @@
         <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1900,43 +1896,43 @@
         <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>75</v>
@@ -1953,7 +1949,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1964,28 +1960,28 @@
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J7" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2035,19 +2031,19 @@
         <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>75</v>
@@ -2056,15 +2052,15 @@
         <v>75</v>
       </c>
       <c r="AL7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2072,31 +2068,31 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F8" t="s" s="2">
+      <c r="H8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J8" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2104,78 +2100,78 @@
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="R8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="R8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W8" t="s" s="2">
+      <c r="X8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="X8" t="s" s="2">
+      <c r="Y8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Y8" t="s" s="2">
+      <c r="Z8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM8" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM8" t="s" s="2">
-        <v>127</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2186,28 +2182,28 @@
         <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J9" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2257,19 +2253,19 @@
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>75</v>
@@ -2278,15 +2274,15 @@
         <v>75</v>
       </c>
       <c r="AL9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AM9" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="AM9" t="s" s="2">
-        <v>134</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2297,28 +2293,28 @@
         <v>76</v>
       </c>
       <c r="F10" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I10" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2368,19 +2364,19 @@
         <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>75</v>
@@ -2397,7 +2393,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2417,19 +2413,19 @@
         <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2479,7 +2475,7 @@
         <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -2491,7 +2487,7 @@
         <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>75</v>
@@ -2508,7 +2504,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2519,7 +2515,7 @@
         <v>76</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>75</v>
@@ -2531,13 +2527,13 @@
         <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2588,25 +2584,25 @@
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>75</v>
@@ -2617,11 +2613,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2640,16 +2636,16 @@
         <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2699,7 +2695,7 @@
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
@@ -2711,13 +2707,13 @@
         <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>75</v>
@@ -2728,11 +2724,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2745,25 +2741,25 @@
         <v>75</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>75</v>
@@ -2812,7 +2808,7 @@
         <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
@@ -2824,13 +2820,13 @@
         <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>75</v>
@@ -2841,7 +2837,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2849,28 +2845,28 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F15" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2921,19 +2917,19 @@
         <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>75</v>
@@ -2950,7 +2946,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2958,28 +2954,28 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F16" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3030,19 +3026,19 @@
         <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>75</v>
@@ -3059,7 +3055,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3067,28 +3063,28 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3127,19 +3123,19 @@
         <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AB17" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AB17" t="s" s="2">
+      <c r="AC17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD17" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AC17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>178</v>
-      </c>
       <c r="AE17" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>76</v>
@@ -3151,7 +3147,7 @@
         <v>75</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>75</v>
@@ -3168,7 +3164,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3179,7 +3175,7 @@
         <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>75</v>
@@ -3191,13 +3187,13 @@
         <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3248,25 +3244,25 @@
         <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>75</v>
@@ -3277,11 +3273,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3300,16 +3296,16 @@
         <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3359,7 +3355,7 @@
         <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
@@ -3371,13 +3367,13 @@
         <v>75</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>75</v>
@@ -3388,11 +3384,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3405,25 +3401,25 @@
         <v>75</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>75</v>
@@ -3472,7 +3468,7 @@
         <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>76</v>
@@ -3484,13 +3480,13 @@
         <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>75</v>
@@ -3501,7 +3497,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3521,16 +3517,16 @@
         <v>75</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3581,7 +3577,7 @@
         <v>75</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
@@ -3593,7 +3589,7 @@
         <v>75</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>75</v>
@@ -3610,7 +3606,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3618,31 +3614,31 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G22" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="H22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3692,19 +3688,19 @@
         <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>75</v>
@@ -3721,7 +3717,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3729,28 +3725,28 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G23" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="H23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J23" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3801,13 +3797,13 @@
         <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>75</v>
@@ -3830,7 +3826,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3841,25 +3837,25 @@
         <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3910,19 +3906,19 @@
         <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>75</v>
@@ -3939,7 +3935,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3950,7 +3946,7 @@
         <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>75</v>
@@ -3962,13 +3958,13 @@
         <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4019,25 +4015,25 @@
         <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>75</v>
@@ -4048,11 +4044,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4071,16 +4067,16 @@
         <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4130,7 +4126,7 @@
         <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
@@ -4142,13 +4138,13 @@
         <v>75</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>75</v>
@@ -4159,11 +4155,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4176,25 +4172,25 @@
         <v>75</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>75</v>
@@ -4243,7 +4239,7 @@
         <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -4255,13 +4251,13 @@
         <v>75</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>75</v>
@@ -4272,7 +4268,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4283,28 +4279,28 @@
         <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4330,13 +4326,13 @@
         <v>75</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>75</v>
@@ -4354,19 +4350,19 @@
         <v>75</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>75</v>
@@ -4383,7 +4379,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4394,28 +4390,28 @@
         <v>76</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J29" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4465,19 +4461,19 @@
         <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>75</v>
@@ -4494,7 +4490,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4505,25 +4501,25 @@
         <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G30" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="H30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4574,19 +4570,19 @@
         <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>75</v>
@@ -4603,7 +4599,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4614,7 +4610,7 @@
         <v>76</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>75</v>
@@ -4626,13 +4622,13 @@
         <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4683,25 +4679,25 @@
         <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>75</v>
@@ -4712,11 +4708,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4735,16 +4731,16 @@
         <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4794,7 +4790,7 @@
         <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
@@ -4806,13 +4802,13 @@
         <v>75</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>75</v>
@@ -4823,11 +4819,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4840,25 +4836,25 @@
         <v>75</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>75</v>
@@ -4907,7 +4903,7 @@
         <v>75</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
@@ -4919,13 +4915,13 @@
         <v>75</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>75</v>
@@ -4936,7 +4932,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4944,28 +4940,28 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F34" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4992,13 +4988,13 @@
         <v>75</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>75</v>
@@ -5016,19 +5012,19 @@
         <v>75</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>75</v>
@@ -5045,7 +5041,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5053,31 +5049,31 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5127,19 +5123,19 @@
         <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>75</v>
@@ -5156,7 +5152,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5167,25 +5163,25 @@
         <v>76</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5236,19 +5232,19 @@
         <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>75</v>
@@ -5265,7 +5261,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5276,25 +5272,25 @@
         <v>76</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5345,19 +5341,19 @@
         <v>75</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>75</v>
@@ -5374,7 +5370,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5385,25 +5381,25 @@
         <v>76</v>
       </c>
       <c r="F38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J38" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5454,19 +5450,19 @@
         <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>75</v>
@@ -5483,7 +5479,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5494,25 +5490,25 @@
         <v>76</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J39" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5563,19 +5559,19 @@
         <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>75</v>
@@ -5592,7 +5588,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5603,25 +5599,25 @@
         <v>76</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J40" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5672,19 +5668,19 @@
         <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>75</v>
@@ -5701,7 +5697,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5712,7 +5708,7 @@
         <v>76</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>75</v>
@@ -5724,13 +5720,13 @@
         <v>75</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5781,25 +5777,25 @@
         <v>75</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>75</v>
@@ -5810,11 +5806,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5833,16 +5829,16 @@
         <v>75</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5892,7 +5888,7 @@
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
@@ -5904,13 +5900,13 @@
         <v>75</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>75</v>
@@ -5921,11 +5917,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -5938,25 +5934,25 @@
         <v>75</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>75</v>
@@ -6005,7 +6001,7 @@
         <v>75</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
@@ -6017,13 +6013,13 @@
         <v>75</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>75</v>
@@ -6034,7 +6030,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6042,28 +6038,28 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F44" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6114,19 +6110,19 @@
         <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>75</v>
@@ -6143,7 +6139,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6154,25 +6150,25 @@
         <v>76</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J45" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6223,19 +6219,19 @@
         <v>75</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>75</v>
@@ -6252,7 +6248,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6263,28 +6259,28 @@
         <v>76</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J46" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6334,19 +6330,19 @@
         <v>75</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>75</v>
@@ -6363,7 +6359,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6374,28 +6370,28 @@
         <v>76</v>
       </c>
       <c r="F47" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J47" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6445,19 +6441,19 @@
         <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>75</v>
@@ -6474,7 +6470,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6485,28 +6481,28 @@
         <v>76</v>
       </c>
       <c r="F48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J48" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6556,13 +6552,13 @@
         <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>75</v>
@@ -6585,38 +6581,38 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G49" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="H49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J49" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6667,7 +6663,7 @@
         <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
@@ -6679,7 +6675,7 @@
         <v>75</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>179</v>
+        <v>264</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>75</v>
@@ -6696,7 +6692,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6707,7 +6703,7 @@
         <v>76</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>75</v>
@@ -6719,13 +6715,13 @@
         <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6776,25 +6772,25 @@
         <v>75</v>
       </c>
       <c r="AE50" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>75</v>
@@ -6805,11 +6801,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6828,16 +6824,16 @@
         <v>75</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -6887,7 +6883,7 @@
         <v>75</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>76</v>
@@ -6899,13 +6895,13 @@
         <v>75</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>75</v>
@@ -6916,11 +6912,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -6933,25 +6929,25 @@
         <v>75</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>75</v>
@@ -7000,7 +6996,7 @@
         <v>75</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
@@ -7012,13 +7008,13 @@
         <v>75</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>75</v>
@@ -7029,7 +7025,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7049,16 +7045,16 @@
         <v>75</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7109,7 +7105,7 @@
         <v>75</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
@@ -7121,7 +7117,7 @@
         <v>75</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>75</v>
@@ -7138,7 +7134,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7149,28 +7145,28 @@
         <v>76</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J54" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7220,19 +7216,19 @@
         <v>75</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>75</v>
@@ -7249,7 +7245,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7260,7 +7256,7 @@
         <v>76</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>75</v>
@@ -7272,16 +7268,16 @@
         <v>75</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7331,13 +7327,13 @@
         <v>75</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>75</v>
@@ -7346,10 +7342,10 @@
         <v>75</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>75</v>
@@ -7360,7 +7356,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7371,25 +7367,25 @@
         <v>76</v>
       </c>
       <c r="F56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J56" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7440,19 +7436,19 @@
         <v>75</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>75</v>
@@ -7469,7 +7465,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7480,7 +7476,7 @@
         <v>76</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>75</v>
@@ -7492,13 +7488,13 @@
         <v>75</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7549,25 +7545,25 @@
         <v>75</v>
       </c>
       <c r="AE57" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>75</v>
@@ -7578,11 +7574,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7601,16 +7597,16 @@
         <v>75</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -7660,7 +7656,7 @@
         <v>75</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>76</v>
@@ -7672,13 +7668,13 @@
         <v>75</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>75</v>
@@ -7689,11 +7685,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7706,25 +7702,25 @@
         <v>75</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>75</v>
@@ -7773,7 +7769,7 @@
         <v>75</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>76</v>
@@ -7785,13 +7781,13 @@
         <v>75</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>75</v>
@@ -7802,7 +7798,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7813,28 +7809,28 @@
         <v>76</v>
       </c>
       <c r="F60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I60" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J60" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -7860,13 +7856,13 @@
         <v>75</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>75</v>
@@ -7884,19 +7880,19 @@
         <v>75</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>75</v>
@@ -7913,7 +7909,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7924,28 +7920,28 @@
         <v>76</v>
       </c>
       <c r="F61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I61" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J61" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -7995,19 +7991,19 @@
         <v>75</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>75</v>
@@ -8024,7 +8020,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8035,25 +8031,25 @@
         <v>76</v>
       </c>
       <c r="F62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I62" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J62" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8104,19 +8100,19 @@
         <v>75</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>75</v>
@@ -8133,7 +8129,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8144,7 +8140,7 @@
         <v>76</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>75</v>
@@ -8156,13 +8152,13 @@
         <v>75</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8213,25 +8209,25 @@
         <v>75</v>
       </c>
       <c r="AE63" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK63" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>75</v>
@@ -8242,11 +8238,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8265,16 +8261,16 @@
         <v>75</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8324,7 +8320,7 @@
         <v>75</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
@@ -8336,13 +8332,13 @@
         <v>75</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>75</v>
@@ -8353,11 +8349,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8370,25 +8366,25 @@
         <v>75</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>75</v>
@@ -8437,7 +8433,7 @@
         <v>75</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>76</v>
@@ -8449,13 +8445,13 @@
         <v>75</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>75</v>
@@ -8466,7 +8462,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8474,28 +8470,28 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I66" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F66" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J66" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8522,13 +8518,13 @@
         <v>75</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>75</v>
@@ -8546,19 +8542,19 @@
         <v>75</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>75</v>
@@ -8575,7 +8571,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8583,31 +8579,31 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I67" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F67" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J67" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8657,19 +8653,19 @@
         <v>75</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>75</v>
@@ -8686,7 +8682,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8697,25 +8693,25 @@
         <v>76</v>
       </c>
       <c r="F68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I68" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J68" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8766,19 +8762,19 @@
         <v>75</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>75</v>
@@ -8795,7 +8791,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8806,25 +8802,25 @@
         <v>76</v>
       </c>
       <c r="F69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I69" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J69" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8875,19 +8871,19 @@
         <v>75</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>75</v>
@@ -8904,7 +8900,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8915,25 +8911,25 @@
         <v>76</v>
       </c>
       <c r="F70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I70" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J70" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8984,19 +8980,19 @@
         <v>75</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>75</v>
@@ -9013,7 +9009,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9024,25 +9020,25 @@
         <v>76</v>
       </c>
       <c r="F71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I71" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J71" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9093,19 +9089,19 @@
         <v>75</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>75</v>
@@ -9122,7 +9118,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9133,25 +9129,25 @@
         <v>76</v>
       </c>
       <c r="F72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I72" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J72" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9202,19 +9198,19 @@
         <v>75</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>75</v>
@@ -9231,7 +9227,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9242,7 +9238,7 @@
         <v>76</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>75</v>
@@ -9254,13 +9250,13 @@
         <v>75</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9311,25 +9307,25 @@
         <v>75</v>
       </c>
       <c r="AE73" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK73" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>75</v>
@@ -9340,11 +9336,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9363,16 +9359,16 @@
         <v>75</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -9422,7 +9418,7 @@
         <v>75</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>76</v>
@@ -9434,13 +9430,13 @@
         <v>75</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>75</v>
@@ -9451,11 +9447,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -9468,25 +9464,25 @@
         <v>75</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N75" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>75</v>
@@ -9535,7 +9531,7 @@
         <v>75</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>76</v>
@@ -9547,13 +9543,13 @@
         <v>75</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>75</v>
@@ -9564,7 +9560,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9572,28 +9568,28 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I76" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J76" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9644,19 +9640,19 @@
         <v>75</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>75</v>
@@ -9673,7 +9669,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9684,25 +9680,25 @@
         <v>76</v>
       </c>
       <c r="F77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I77" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J77" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9753,19 +9749,19 @@
         <v>75</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>75</v>
@@ -9782,7 +9778,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9793,28 +9789,28 @@
         <v>76</v>
       </c>
       <c r="F78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I78" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J78" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -9864,19 +9860,19 @@
         <v>75</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>75</v>
@@ -9893,7 +9889,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9904,28 +9900,28 @@
         <v>76</v>
       </c>
       <c r="F79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I79" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J79" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -9975,19 +9971,19 @@
         <v>75</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>75</v>
@@ -10004,7 +10000,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10015,28 +10011,28 @@
         <v>76</v>
       </c>
       <c r="F80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I80" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J80" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10086,13 +10082,13 @@
         <v>75</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>75</v>
@@ -10115,38 +10111,38 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G81" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="H81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I81" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G81" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J81" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10197,7 +10193,7 @@
         <v>75</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>76</v>
@@ -10209,7 +10205,7 @@
         <v>75</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>179</v>
+        <v>264</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>75</v>
@@ -10226,7 +10222,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10237,7 +10233,7 @@
         <v>76</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>75</v>
@@ -10249,13 +10245,13 @@
         <v>75</v>
       </c>
       <c r="J82" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K82" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K82" t="s" s="2">
+      <c r="L82" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10306,25 +10302,25 @@
         <v>75</v>
       </c>
       <c r="AE82" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK82" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>75</v>
@@ -10335,11 +10331,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10358,16 +10354,16 @@
         <v>75</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -10417,7 +10413,7 @@
         <v>75</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>76</v>
@@ -10429,13 +10425,13 @@
         <v>75</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>75</v>
@@ -10446,11 +10442,11 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -10463,25 +10459,25 @@
         <v>75</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N84" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>75</v>
@@ -10530,7 +10526,7 @@
         <v>75</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>76</v>
@@ -10542,13 +10538,13 @@
         <v>75</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>75</v>
@@ -10559,7 +10555,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10579,16 +10575,16 @@
         <v>75</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10639,7 +10635,7 @@
         <v>75</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>76</v>
@@ -10651,7 +10647,7 @@
         <v>75</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>75</v>
@@ -10668,7 +10664,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10679,28 +10675,28 @@
         <v>76</v>
       </c>
       <c r="F86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I86" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J86" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -10750,19 +10746,19 @@
         <v>75</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>75</v>
@@ -10779,18 +10775,18 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>75</v>
@@ -10802,13 +10798,13 @@
         <v>75</v>
       </c>
       <c r="J87" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K87" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="K87" t="s" s="2">
+      <c r="L87" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -10859,28 +10855,28 @@
         <v>75</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI87" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK87" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AJ87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK87" t="s" s="2">
+      <c r="AL87" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>75</v>
@@ -10888,7 +10884,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10899,25 +10895,25 @@
         <v>76</v>
       </c>
       <c r="F88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I88" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J88" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -10968,19 +10964,19 @@
         <v>75</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>75</v>
@@ -10997,7 +10993,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11008,7 +11004,7 @@
         <v>76</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>75</v>
@@ -11020,13 +11016,13 @@
         <v>75</v>
       </c>
       <c r="J89" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K89" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K89" t="s" s="2">
+      <c r="L89" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11077,25 +11073,25 @@
         <v>75</v>
       </c>
       <c r="AE89" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK89" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>75</v>
@@ -11106,11 +11102,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11129,16 +11125,16 @@
         <v>75</v>
       </c>
       <c r="J90" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K90" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K90" t="s" s="2">
+      <c r="L90" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -11188,7 +11184,7 @@
         <v>75</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>76</v>
@@ -11200,13 +11196,13 @@
         <v>75</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>75</v>
@@ -11217,11 +11213,11 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11234,25 +11230,25 @@
         <v>75</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N91" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>75</v>
@@ -11301,7 +11297,7 @@
         <v>75</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>76</v>
@@ -11313,13 +11309,13 @@
         <v>75</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>75</v>
@@ -11330,7 +11326,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11341,28 +11337,28 @@
         <v>76</v>
       </c>
       <c r="F92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I92" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J92" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -11388,13 +11384,13 @@
         <v>75</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>75</v>
@@ -11412,19 +11408,19 @@
         <v>75</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>75</v>
@@ -11441,7 +11437,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11452,28 +11448,28 @@
         <v>76</v>
       </c>
       <c r="F93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I93" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J93" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="K93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -11523,19 +11519,19 @@
         <v>75</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>75</v>
@@ -11552,7 +11548,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11563,25 +11559,25 @@
         <v>76</v>
       </c>
       <c r="F94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I94" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J94" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -11632,19 +11628,19 @@
         <v>75</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>75</v>
@@ -11661,7 +11657,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11672,7 +11668,7 @@
         <v>76</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>75</v>
@@ -11684,13 +11680,13 @@
         <v>75</v>
       </c>
       <c r="J95" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K95" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K95" t="s" s="2">
+      <c r="L95" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -11741,25 +11737,25 @@
         <v>75</v>
       </c>
       <c r="AE95" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK95" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>75</v>
@@ -11770,11 +11766,11 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -11793,16 +11789,16 @@
         <v>75</v>
       </c>
       <c r="J96" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K96" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K96" t="s" s="2">
+      <c r="L96" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -11852,7 +11848,7 @@
         <v>75</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>76</v>
@@ -11864,13 +11860,13 @@
         <v>75</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>75</v>
@@ -11881,11 +11877,11 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -11898,25 +11894,25 @@
         <v>75</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N97" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>75</v>
@@ -11965,7 +11961,7 @@
         <v>75</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>76</v>
@@ -11977,13 +11973,13 @@
         <v>75</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>75</v>
@@ -11994,7 +11990,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12002,28 +11998,28 @@
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I98" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F98" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J98" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12050,13 +12046,13 @@
         <v>75</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>75</v>
@@ -12074,19 +12070,19 @@
         <v>75</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>75</v>
@@ -12103,7 +12099,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12111,31 +12107,31 @@
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I99" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F99" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J99" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -12185,19 +12181,19 @@
         <v>75</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>75</v>
@@ -12214,7 +12210,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12225,25 +12221,25 @@
         <v>76</v>
       </c>
       <c r="F100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I100" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J100" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -12294,19 +12290,19 @@
         <v>75</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>75</v>
@@ -12323,7 +12319,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12334,25 +12330,25 @@
         <v>76</v>
       </c>
       <c r="F101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I101" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J101" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -12403,19 +12399,19 @@
         <v>75</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>75</v>
@@ -12432,7 +12428,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12443,25 +12439,25 @@
         <v>76</v>
       </c>
       <c r="F102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I102" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J102" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -12512,19 +12508,19 @@
         <v>75</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>75</v>
@@ -12541,7 +12537,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12552,25 +12548,25 @@
         <v>76</v>
       </c>
       <c r="F103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I103" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G103" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J103" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -12621,19 +12617,19 @@
         <v>75</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>75</v>
@@ -12650,7 +12646,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12661,25 +12657,25 @@
         <v>76</v>
       </c>
       <c r="F104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I104" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G104" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J104" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -12730,19 +12726,19 @@
         <v>75</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>75</v>
@@ -12759,7 +12755,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -12770,7 +12766,7 @@
         <v>76</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>75</v>
@@ -12782,13 +12778,13 @@
         <v>75</v>
       </c>
       <c r="J105" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K105" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K105" t="s" s="2">
+      <c r="L105" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -12839,25 +12835,25 @@
         <v>75</v>
       </c>
       <c r="AE105" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK105" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>75</v>
@@ -12868,11 +12864,11 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -12891,16 +12887,16 @@
         <v>75</v>
       </c>
       <c r="J106" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K106" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K106" t="s" s="2">
+      <c r="L106" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="M106" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -12950,7 +12946,7 @@
         <v>75</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>76</v>
@@ -12962,13 +12958,13 @@
         <v>75</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>75</v>
@@ -12979,11 +12975,11 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -12996,25 +12992,25 @@
         <v>75</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L107" t="s" s="2">
+      <c r="M107" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N107" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>75</v>
@@ -13063,7 +13059,7 @@
         <v>75</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>76</v>
@@ -13075,13 +13071,13 @@
         <v>75</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>75</v>
@@ -13092,7 +13088,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13100,28 +13096,28 @@
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I108" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F108" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J108" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -13172,19 +13168,19 @@
         <v>75</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>75</v>
@@ -13201,7 +13197,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13212,25 +13208,25 @@
         <v>76</v>
       </c>
       <c r="F109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I109" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J109" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -13281,19 +13277,19 @@
         <v>75</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>75</v>
@@ -13310,7 +13306,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13321,28 +13317,28 @@
         <v>76</v>
       </c>
       <c r="F110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I110" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J110" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
@@ -13392,19 +13388,19 @@
         <v>75</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>75</v>
@@ -13421,7 +13417,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13432,28 +13428,28 @@
         <v>76</v>
       </c>
       <c r="F111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I111" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J111" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
@@ -13503,19 +13499,19 @@
         <v>75</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>75</v>
@@ -13532,7 +13528,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -13543,28 +13539,28 @@
         <v>76</v>
       </c>
       <c r="F112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I112" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J112" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K112" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -13614,13 +13610,13 @@
         <v>75</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>75</v>
@@ -13643,7 +13639,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -13654,31 +13650,31 @@
         <v>76</v>
       </c>
       <c r="F113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I113" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J113" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="K113" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="K113" t="s" s="2">
+      <c r="L113" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L113" t="s" s="2">
+      <c r="M113" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M113" t="s" s="2">
+      <c r="N113" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>75</v>
@@ -13727,19 +13723,19 @@
         <v>75</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-14T20:19:28+00:00</t>
+    <t>2022-11-09T18:06:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T18:06:00+00:00</t>
+    <t>2022-11-09T18:16:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T18:16:12+00:00</t>
+    <t>2022-11-14T18:26:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T18:26:34+00:00</t>
+    <t>2022-11-14T19:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T19:03:53+00:00</t>
+    <t>2022-11-30T18:54:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T18:54:03+00:00</t>
+    <t>2022-11-30T20:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T20:29:42+00:00</t>
+    <t>2022-12-01T22:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4069" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4069" uniqueCount="350">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T23:56:39+00:00</t>
+    <t>2023-01-30T21:25:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -253,6 +253,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Contains a collection of resources</t>
@@ -1622,13 +1626,13 @@
         <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1694,13 +1698,13 @@
         <v>76</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>76</v>
@@ -1708,10 +1712,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1722,7 +1726,7 @@
         <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>76</v>
@@ -1731,19 +1735,19 @@
         <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1793,13 +1797,13 @@
         <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>76</v>
@@ -1822,10 +1826,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1836,7 +1840,7 @@
         <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>76</v>
@@ -1845,16 +1849,16 @@
         <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1905,19 +1909,19 @@
         <v>76</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
@@ -1934,10 +1938,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1948,28 +1952,28 @@
         <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2019,19 +2023,19 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>76</v>
@@ -2048,10 +2052,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2062,7 +2066,7 @@
         <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>76</v>
@@ -2074,16 +2078,16 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2109,13 +2113,13 @@
         <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>76</v>
@@ -2133,19 +2137,19 @@
         <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>76</v>
@@ -2162,10 +2166,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2176,7 +2180,7 @@
         <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>76</v>
@@ -2185,19 +2189,19 @@
         <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2247,19 +2251,19 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
@@ -2268,18 +2272,18 @@
         <v>76</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2287,31 +2291,31 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2319,7 +2323,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>76</v>
@@ -2337,13 +2341,13 @@
         <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AA8" t="s" s="2">
         <v>76</v>
@@ -2361,19 +2365,19 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>76</v>
@@ -2385,15 +2389,15 @@
         <v>76</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2404,7 +2408,7 @@
         <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>76</v>
@@ -2413,19 +2417,19 @@
         <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2475,19 +2479,19 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
@@ -2496,18 +2500,18 @@
         <v>76</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2518,7 +2522,7 @@
         <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>76</v>
@@ -2527,19 +2531,19 @@
         <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2589,19 +2593,19 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
@@ -2618,10 +2622,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2641,19 +2645,19 @@
         <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2703,7 +2707,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2715,7 +2719,7 @@
         <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>76</v>
@@ -2732,10 +2736,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2746,7 +2750,7 @@
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>76</v>
@@ -2758,13 +2762,13 @@
         <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2815,13 +2819,13 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>76</v>
@@ -2833,7 +2837,7 @@
         <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>76</v>
@@ -2844,14 +2848,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2870,16 +2874,16 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2929,7 +2933,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -2941,13 +2945,13 @@
         <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>76</v>
@@ -2958,14 +2962,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2978,25 +2982,25 @@
         <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -3045,7 +3049,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3057,13 +3061,13 @@
         <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>76</v>
@@ -3074,10 +3078,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3085,10 +3089,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>76</v>
@@ -3097,16 +3101,16 @@
         <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3157,19 +3161,19 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>76</v>
@@ -3186,10 +3190,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3197,10 +3201,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>76</v>
@@ -3209,16 +3213,16 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3269,19 +3273,19 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>76</v>
@@ -3298,10 +3302,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3309,10 +3313,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>76</v>
@@ -3321,16 +3325,16 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3369,19 +3373,19 @@
         <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3410,10 +3414,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3424,7 +3428,7 @@
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -3436,13 +3440,13 @@
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3493,13 +3497,13 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>76</v>
@@ -3511,7 +3515,7 @@
         <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
@@ -3522,14 +3526,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3548,16 +3552,16 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3607,7 +3611,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3619,13 +3623,13 @@
         <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -3636,14 +3640,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3656,25 +3660,25 @@
         <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3723,7 +3727,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3735,13 +3739,13 @@
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
@@ -3752,10 +3756,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3775,16 +3779,16 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3835,7 +3839,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3847,7 +3851,7 @@
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
@@ -3864,10 +3868,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3875,31 +3879,31 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3949,19 +3953,19 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
@@ -3978,10 +3982,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3989,28 +3993,28 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4061,13 +4065,13 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>76</v>
@@ -4090,10 +4094,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4104,7 +4108,7 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -4113,16 +4117,16 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4173,19 +4177,19 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
@@ -4202,10 +4206,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4216,7 +4220,7 @@
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>76</v>
@@ -4228,13 +4232,13 @@
         <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4285,13 +4289,13 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>76</v>
@@ -4303,7 +4307,7 @@
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4314,14 +4318,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4340,16 +4344,16 @@
         <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4399,7 +4403,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4411,13 +4415,13 @@
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
@@ -4428,14 +4432,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4448,25 +4452,25 @@
         <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -4515,7 +4519,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4527,13 +4531,13 @@
         <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4544,10 +4548,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4558,7 +4562,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4567,19 +4571,19 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4605,13 +4609,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -4629,19 +4633,19 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>76</v>
@@ -4658,10 +4662,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4672,7 +4676,7 @@
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
@@ -4681,19 +4685,19 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4743,19 +4747,19 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>76</v>
@@ -4772,10 +4776,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4786,25 +4790,25 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4855,19 +4859,19 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>76</v>
@@ -4884,10 +4888,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4898,7 +4902,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -4910,13 +4914,13 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4967,13 +4971,13 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
@@ -4985,7 +4989,7 @@
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -4996,14 +5000,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5022,16 +5026,16 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5081,7 +5085,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5093,13 +5097,13 @@
         <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -5110,14 +5114,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5130,25 +5134,25 @@
         <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5197,7 +5201,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5209,13 +5213,13 @@
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5226,10 +5230,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5237,10 +5241,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -5249,16 +5253,16 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5285,13 +5289,13 @@
         <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>76</v>
@@ -5309,19 +5313,19 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>76</v>
@@ -5338,10 +5342,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5349,10 +5353,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
@@ -5361,19 +5365,19 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5423,19 +5427,19 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>76</v>
@@ -5452,10 +5456,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5466,7 +5470,7 @@
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -5475,16 +5479,16 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5535,19 +5539,19 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>76</v>
@@ -5564,10 +5568,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5578,7 +5582,7 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
@@ -5587,16 +5591,16 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5647,19 +5651,19 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>76</v>
@@ -5676,10 +5680,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5690,7 +5694,7 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
@@ -5699,16 +5703,16 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5759,19 +5763,19 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
@@ -5788,10 +5792,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5802,7 +5806,7 @@
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -5811,16 +5815,16 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5871,19 +5875,19 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>76</v>
@@ -5900,10 +5904,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5914,7 +5918,7 @@
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
@@ -5923,16 +5927,16 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5983,19 +5987,19 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
@@ -6012,10 +6016,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6026,7 +6030,7 @@
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>76</v>
@@ -6038,13 +6042,13 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6095,13 +6099,13 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>76</v>
@@ -6113,7 +6117,7 @@
         <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>76</v>
@@ -6124,14 +6128,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6150,16 +6154,16 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6209,7 +6213,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6221,13 +6225,13 @@
         <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
@@ -6238,14 +6242,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6258,25 +6262,25 @@
         <v>76</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6325,7 +6329,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6337,13 +6341,13 @@
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6354,10 +6358,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6365,10 +6369,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
@@ -6377,16 +6381,16 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6437,19 +6441,19 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>76</v>
@@ -6466,10 +6470,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6480,7 +6484,7 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
@@ -6489,16 +6493,16 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6549,19 +6553,19 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>76</v>
@@ -6578,10 +6582,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6592,7 +6596,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>76</v>
@@ -6601,19 +6605,19 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6663,19 +6667,19 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>76</v>
@@ -6692,10 +6696,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6706,7 +6710,7 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
@@ -6715,19 +6719,19 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6777,19 +6781,19 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>76</v>
@@ -6806,10 +6810,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6820,7 +6824,7 @@
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>76</v>
@@ -6829,19 +6833,19 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6891,13 +6895,13 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>76</v>
@@ -6920,41 +6924,41 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7005,7 +7009,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7017,7 +7021,7 @@
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>76</v>
@@ -7034,10 +7038,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7048,7 +7052,7 @@
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>76</v>
@@ -7060,13 +7064,13 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7117,13 +7121,13 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>76</v>
@@ -7135,7 +7139,7 @@
         <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
@@ -7146,14 +7150,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7172,16 +7176,16 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7231,7 +7235,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7243,13 +7247,13 @@
         <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
@@ -7260,14 +7264,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7280,25 +7284,25 @@
         <v>76</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7347,7 +7351,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7359,13 +7363,13 @@
         <v>76</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>76</v>
@@ -7376,10 +7380,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7399,16 +7403,16 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7459,7 +7463,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7471,7 +7475,7 @@
         <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>76</v>
@@ -7488,10 +7492,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7502,7 +7506,7 @@
         <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>76</v>
@@ -7511,19 +7515,19 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7573,19 +7577,19 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
@@ -7602,10 +7606,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7616,7 +7620,7 @@
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
@@ -7628,16 +7632,16 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7687,13 +7691,13 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>76</v>
@@ -7702,10 +7706,10 @@
         <v>76</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
@@ -7716,10 +7720,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7730,7 +7734,7 @@
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>76</v>
@@ -7739,16 +7743,16 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7799,19 +7803,19 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>76</v>
@@ -7828,10 +7832,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7842,7 +7846,7 @@
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>76</v>
@@ -7854,13 +7858,13 @@
         <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7911,13 +7915,13 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>76</v>
@@ -7929,7 +7933,7 @@
         <v>76</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
@@ -7940,14 +7944,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -7966,16 +7970,16 @@
         <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8025,7 +8029,7 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8037,13 +8041,13 @@
         <v>76</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
@@ -8054,14 +8058,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8074,25 +8078,25 @@
         <v>76</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>76</v>
@@ -8141,7 +8145,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8153,13 +8157,13 @@
         <v>76</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
@@ -8170,10 +8174,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8184,7 +8188,7 @@
         <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>76</v>
@@ -8193,19 +8197,19 @@
         <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8231,13 +8235,13 @@
         <v>76</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>76</v>
@@ -8255,19 +8259,19 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>76</v>
@@ -8284,10 +8288,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8298,7 +8302,7 @@
         <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>76</v>
@@ -8307,19 +8311,19 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8369,19 +8373,19 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>76</v>
@@ -8398,10 +8402,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8412,7 +8416,7 @@
         <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>76</v>
@@ -8421,16 +8425,16 @@
         <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8481,19 +8485,19 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>76</v>
@@ -8510,10 +8514,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8524,7 +8528,7 @@
         <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>76</v>
@@ -8536,13 +8540,13 @@
         <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8593,13 +8597,13 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>76</v>
@@ -8611,7 +8615,7 @@
         <v>76</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>76</v>
@@ -8622,14 +8626,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8648,16 +8652,16 @@
         <v>76</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8707,7 +8711,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -8719,13 +8723,13 @@
         <v>76</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>76</v>
@@ -8736,14 +8740,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -8756,25 +8760,25 @@
         <v>76</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>76</v>
@@ -8823,7 +8827,7 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -8835,13 +8839,13 @@
         <v>76</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>76</v>
@@ -8852,10 +8856,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8863,10 +8867,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>76</v>
@@ -8875,16 +8879,16 @@
         <v>76</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8911,13 +8915,13 @@
         <v>76</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>76</v>
@@ -8935,19 +8939,19 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>76</v>
@@ -8964,10 +8968,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8975,10 +8979,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>76</v>
@@ -8987,19 +8991,19 @@
         <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9049,19 +9053,19 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>76</v>
@@ -9078,10 +9082,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9092,7 +9096,7 @@
         <v>77</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>76</v>
@@ -9101,16 +9105,16 @@
         <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9161,19 +9165,19 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>76</v>
@@ -9190,10 +9194,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9204,7 +9208,7 @@
         <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>76</v>
@@ -9213,16 +9217,16 @@
         <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9273,19 +9277,19 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>76</v>
@@ -9302,10 +9306,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9316,7 +9320,7 @@
         <v>77</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>76</v>
@@ -9325,16 +9329,16 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9385,19 +9389,19 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>76</v>
@@ -9414,10 +9418,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9428,7 +9432,7 @@
         <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>76</v>
@@ -9437,16 +9441,16 @@
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9497,19 +9501,19 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>76</v>
@@ -9526,10 +9530,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9540,7 +9544,7 @@
         <v>77</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>76</v>
@@ -9549,16 +9553,16 @@
         <v>76</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9609,19 +9613,19 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>76</v>
@@ -9638,10 +9642,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9652,7 +9656,7 @@
         <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>76</v>
@@ -9664,13 +9668,13 @@
         <v>76</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9721,13 +9725,13 @@
         <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>76</v>
@@ -9739,7 +9743,7 @@
         <v>76</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>76</v>
@@ -9750,14 +9754,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -9776,16 +9780,16 @@
         <v>76</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9835,7 +9839,7 @@
         <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -9847,13 +9851,13 @@
         <v>76</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>76</v>
@@ -9864,14 +9868,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -9884,25 +9888,25 @@
         <v>76</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>76</v>
@@ -9951,7 +9955,7 @@
         <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -9963,13 +9967,13 @@
         <v>76</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>76</v>
@@ -9980,10 +9984,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9991,10 +9995,10 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>76</v>
@@ -10003,16 +10007,16 @@
         <v>76</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10063,19 +10067,19 @@
         <v>76</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>76</v>
@@ -10092,10 +10096,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10106,7 +10110,7 @@
         <v>77</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>76</v>
@@ -10115,16 +10119,16 @@
         <v>76</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10175,19 +10179,19 @@
         <v>76</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>76</v>
@@ -10204,10 +10208,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10218,7 +10222,7 @@
         <v>77</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>76</v>
@@ -10227,19 +10231,19 @@
         <v>76</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10289,19 +10293,19 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>76</v>
@@ -10318,10 +10322,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10332,7 +10336,7 @@
         <v>77</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>76</v>
@@ -10341,19 +10345,19 @@
         <v>76</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10403,19 +10407,19 @@
         <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>76</v>
@@ -10432,10 +10436,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10446,7 +10450,7 @@
         <v>77</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>76</v>
@@ -10455,19 +10459,19 @@
         <v>76</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -10517,13 +10521,13 @@
         <v>76</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>76</v>
@@ -10546,41 +10550,41 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10631,7 +10635,7 @@
         <v>76</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -10643,7 +10647,7 @@
         <v>76</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>76</v>
@@ -10660,10 +10664,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10674,7 +10678,7 @@
         <v>77</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>76</v>
@@ -10686,13 +10690,13 @@
         <v>76</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10743,13 +10747,13 @@
         <v>76</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>76</v>
@@ -10761,7 +10765,7 @@
         <v>76</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>76</v>
@@ -10772,14 +10776,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -10798,16 +10802,16 @@
         <v>76</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -10857,7 +10861,7 @@
         <v>76</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -10869,13 +10873,13 @@
         <v>76</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>76</v>
@@ -10886,14 +10890,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -10906,25 +10910,25 @@
         <v>76</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>76</v>
@@ -10973,7 +10977,7 @@
         <v>76</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -10985,13 +10989,13 @@
         <v>76</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>76</v>
@@ -11002,10 +11006,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11025,16 +11029,16 @@
         <v>76</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11085,7 +11089,7 @@
         <v>76</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -11097,7 +11101,7 @@
         <v>76</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>76</v>
@@ -11114,10 +11118,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11128,7 +11132,7 @@
         <v>77</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>76</v>
@@ -11137,19 +11141,19 @@
         <v>76</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -11199,19 +11203,19 @@
         <v>76</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>76</v>
@@ -11228,21 +11232,21 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>76</v>
@@ -11254,13 +11258,13 @@
         <v>76</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11311,28 +11315,28 @@
         <v>76</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>76</v>
@@ -11340,10 +11344,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11354,7 +11358,7 @@
         <v>77</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>76</v>
@@ -11363,16 +11367,16 @@
         <v>76</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11423,19 +11427,19 @@
         <v>76</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>76</v>
@@ -11452,10 +11456,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11466,7 +11470,7 @@
         <v>77</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>76</v>
@@ -11478,13 +11482,13 @@
         <v>76</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -11535,13 +11539,13 @@
         <v>76</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>76</v>
@@ -11553,7 +11557,7 @@
         <v>76</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>76</v>
@@ -11564,14 +11568,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -11590,16 +11594,16 @@
         <v>76</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -11649,7 +11653,7 @@
         <v>76</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
@@ -11661,13 +11665,13 @@
         <v>76</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>76</v>
@@ -11678,14 +11682,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -11698,25 +11702,25 @@
         <v>76</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>76</v>
@@ -11765,7 +11769,7 @@
         <v>76</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>77</v>
@@ -11777,13 +11781,13 @@
         <v>76</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>76</v>
@@ -11794,10 +11798,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11808,7 +11812,7 @@
         <v>77</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>76</v>
@@ -11817,19 +11821,19 @@
         <v>76</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -11855,13 +11859,13 @@
         <v>76</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>76</v>
@@ -11879,19 +11883,19 @@
         <v>76</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>76</v>
@@ -11908,10 +11912,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -11922,7 +11926,7 @@
         <v>77</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>76</v>
@@ -11931,19 +11935,19 @@
         <v>76</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -11993,19 +11997,19 @@
         <v>76</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>76</v>
@@ -12022,10 +12026,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12036,7 +12040,7 @@
         <v>77</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>76</v>
@@ -12045,16 +12049,16 @@
         <v>76</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12105,19 +12109,19 @@
         <v>76</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>76</v>
@@ -12134,10 +12138,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12148,7 +12152,7 @@
         <v>77</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>76</v>
@@ -12160,13 +12164,13 @@
         <v>76</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -12217,13 +12221,13 @@
         <v>76</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>76</v>
@@ -12235,7 +12239,7 @@
         <v>76</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>76</v>
@@ -12246,14 +12250,14 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -12272,16 +12276,16 @@
         <v>76</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -12331,7 +12335,7 @@
         <v>76</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>77</v>
@@ -12343,13 +12347,13 @@
         <v>76</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>76</v>
@@ -12360,14 +12364,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -12380,25 +12384,25 @@
         <v>76</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>76</v>
@@ -12447,7 +12451,7 @@
         <v>76</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>77</v>
@@ -12459,13 +12463,13 @@
         <v>76</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>76</v>
@@ -12476,10 +12480,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12487,10 +12491,10 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>76</v>
@@ -12499,16 +12503,16 @@
         <v>76</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -12535,13 +12539,13 @@
         <v>76</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>76</v>
@@ -12559,19 +12563,19 @@
         <v>76</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>76</v>
@@ -12588,10 +12592,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12599,10 +12603,10 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>76</v>
@@ -12611,19 +12615,19 @@
         <v>76</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -12673,19 +12677,19 @@
         <v>76</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>76</v>
@@ -12702,10 +12706,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12716,7 +12720,7 @@
         <v>77</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>76</v>
@@ -12725,16 +12729,16 @@
         <v>76</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -12785,19 +12789,19 @@
         <v>76</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>76</v>
@@ -12814,10 +12818,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12828,7 +12832,7 @@
         <v>77</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>76</v>
@@ -12837,16 +12841,16 @@
         <v>76</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -12897,19 +12901,19 @@
         <v>76</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>76</v>
@@ -12926,10 +12930,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12940,7 +12944,7 @@
         <v>77</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>76</v>
@@ -12949,16 +12953,16 @@
         <v>76</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -13009,19 +13013,19 @@
         <v>76</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>76</v>
@@ -13038,10 +13042,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13052,7 +13056,7 @@
         <v>77</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>76</v>
@@ -13061,16 +13065,16 @@
         <v>76</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -13121,19 +13125,19 @@
         <v>76</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>76</v>
@@ -13150,10 +13154,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13164,7 +13168,7 @@
         <v>77</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>76</v>
@@ -13173,16 +13177,16 @@
         <v>76</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13233,19 +13237,19 @@
         <v>76</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>76</v>
@@ -13262,10 +13266,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13276,7 +13280,7 @@
         <v>77</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>76</v>
@@ -13288,13 +13292,13 @@
         <v>76</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -13345,13 +13349,13 @@
         <v>76</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>76</v>
@@ -13363,7 +13367,7 @@
         <v>76</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>76</v>
@@ -13374,14 +13378,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -13400,16 +13404,16 @@
         <v>76</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -13459,7 +13463,7 @@
         <v>76</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>77</v>
@@ -13471,13 +13475,13 @@
         <v>76</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>76</v>
@@ -13488,14 +13492,14 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -13508,25 +13512,25 @@
         <v>76</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>76</v>
@@ -13575,7 +13579,7 @@
         <v>76</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>77</v>
@@ -13587,13 +13591,13 @@
         <v>76</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>76</v>
@@ -13604,10 +13608,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13615,10 +13619,10 @@
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>76</v>
@@ -13627,16 +13631,16 @@
         <v>76</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -13687,19 +13691,19 @@
         <v>76</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>76</v>
@@ -13716,10 +13720,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13730,7 +13734,7 @@
         <v>77</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>76</v>
@@ -13739,16 +13743,16 @@
         <v>76</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -13799,19 +13803,19 @@
         <v>76</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>76</v>
@@ -13828,10 +13832,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13842,7 +13846,7 @@
         <v>77</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>76</v>
@@ -13851,19 +13855,19 @@
         <v>76</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -13913,19 +13917,19 @@
         <v>76</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>76</v>
@@ -13942,10 +13946,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13956,7 +13960,7 @@
         <v>77</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>76</v>
@@ -13965,19 +13969,19 @@
         <v>76</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -14027,19 +14031,19 @@
         <v>76</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>76</v>
@@ -14056,10 +14060,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14070,7 +14074,7 @@
         <v>77</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>76</v>
@@ -14079,19 +14083,19 @@
         <v>76</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -14141,13 +14145,13 @@
         <v>76</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>76</v>
@@ -14170,10 +14174,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14184,7 +14188,7 @@
         <v>77</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>76</v>
@@ -14193,22 +14197,22 @@
         <v>76</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>76</v>
@@ -14257,19 +14261,19 @@
         <v>76</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:25:21+00:00</t>
+    <t>2023-01-30T21:26:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:26:21+00:00</t>
+    <t>2023-02-01T18:07:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T18:07:18+00:00</t>
+    <t>2023-02-01T18:22:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T18:22:44+00:00</t>
+    <t>2023-02-02T00:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T00:15:50+00:00</t>
+    <t>2023-02-02T17:38:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T17:38:38+00:00</t>
+    <t>2023-02-07T22:10:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T22:10:03+00:00</t>
+    <t>2023-02-08T18:25:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T18:25:04+00:00</t>
+    <t>2023-02-09T00:02:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T00:02:02+00:00</t>
+    <t>2023-02-09T00:02:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T00:02:19+00:00</t>
+    <t>2023-02-17T22:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1008,7 +1008,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}invariant-name-use-1:Each type of allowed Name.use can only be used once. {name.where(use = 'nickname').count()&lt;=1 and name.where(use = 'usual').count()&lt;=1 and name.where(use = 'official').count()&lt;=1}invariant-address-type-1:Address.type, if both, must not include any other types of addresses, i.e. no postal and no physical. {address.where(type = 'both').count()&gt;=1 implies (address.where(type = 'physical').count()=0 and address.where(type = 'postal').count()=0)}invariant-address-type-2:Each Address.type, if Address.type is NOT both, must be present no more than once. {address.where(type = 'both').count()=0 implies (address.where(type = 'physical').count()&lt;=1 and address.where(type = 'postal').count()&lt;=1)}invariant-telecom-phone-use-1:Each type of allowed Telecom.use for phone systems can only be used once. {telecom.where(use = 'home' and system='phone').count()&lt;=1 and telecom.where(use = 'work' and system='phone').count()&lt;=1 and telecom.where(use = 'mobile' and system='phone').count()&lt;=1}invariant-telecom-email-use-1:Each type of allowed Telecom.use for email systems can only be used once. {telecom.where(use = 'home' and system='email').count()&lt;=1 and telecom.where(use = 'work' and system='email').count()&lt;=1 and telecom.where(use = 'mobile' and system='email').count()&lt;=1}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T22:47:47+00:00</t>
+    <t>2023-02-17T23:20:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T23:20:35+00:00</t>
+    <t>2023-02-21T21:28:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:28:27+00:00</t>
+    <t>2023-02-21T21:29:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:29:24+00:00</t>
+    <t>2023-04-17T21:31:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -11032,7 +11032,7 @@
         <v>86</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L85" t="s" s="2">
         <v>184</v>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-28T23:19:40+00:00</t>
+    <t>2023-07-28T15:45:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -10789,7 +10789,7 @@
         <v>46</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L84" t="s" s="2">
         <v>144</v>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T15:45:10+00:00</t>
+    <t>2023-07-28T16:00:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:00:21+00:00</t>
+    <t>2023-07-28T16:52:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:52:29+00:00</t>
+    <t>2023-08-14T17:02:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -10789,7 +10789,7 @@
         <v>46</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L84" t="s" s="2">
         <v>144</v>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-14T17:02:44+00:00</t>
+    <t>2023-08-14T17:37:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4029" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4029" uniqueCount="311">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-14T17:37:04+00:00</t>
+    <t>2023-09-14T16:14:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -143,6 +143,10 @@
   </si>
   <si>
     <t>A container for a collection of resources.</t>
+  </si>
+  <si>
+    <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
+bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}invariant-update-1:When Updating a Patient with the UpdatePatient Operation at least one of name, telecom, gender, address, birthDate or deceased attributes must be present. {entry.resource.ofType(Patient).name.count()&gt;=1 or entry.resource.ofType(Patient).telecom.count()&gt;=1 or entry.resource.ofType(Patient).gender.count() &gt;=1 or entry.resource.ofType(Patient).deceased[x].count()&gt;=1 or entry.resource.ofType(Patient).address.count()&gt;=1 or entry.resource.ofType(Patient).communication.count()&gt;=1}</t>
   </si>
   <si>
     <t>N/A</t>
@@ -465,6 +469,10 @@
     <t>open</t>
   </si>
   <si>
+    <t>bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}
+bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+  </si>
+  <si>
     <t>Bundle.entry.id</t>
   </si>
   <si>
@@ -734,10 +742,6 @@
   </si>
   <si>
     <t>Metadata in parameters</t>
-  </si>
-  <si>
-    <t>bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}
-bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>Bundle.entry:parameters.id</t>
@@ -1452,16 +1456,16 @@
         <v>36</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>36</v>
@@ -1469,10 +1473,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1483,7 +1487,7 @@
         <v>37</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>36</v>
@@ -1492,19 +1496,19 @@
         <v>36</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1554,13 +1558,13 @@
         <v>36</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>36</v>
@@ -1583,10 +1587,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1597,7 +1601,7 @@
         <v>37</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>36</v>
@@ -1606,16 +1610,16 @@
         <v>36</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1666,19 +1670,19 @@
         <v>36</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>36</v>
@@ -1695,10 +1699,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1709,28 +1713,28 @@
         <v>37</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1780,19 +1784,19 @@
         <v>36</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>36</v>
@@ -1809,10 +1813,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1823,7 +1827,7 @@
         <v>37</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>36</v>
@@ -1835,16 +1839,16 @@
         <v>36</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1870,13 +1874,13 @@
         <v>36</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>36</v>
@@ -1894,19 +1898,19 @@
         <v>36</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>36</v>
@@ -1923,10 +1927,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1937,7 +1941,7 @@
         <v>37</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>36</v>
@@ -1946,19 +1950,19 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2008,19 +2012,19 @@
         <v>36</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>36</v>
@@ -2029,18 +2033,18 @@
         <v>36</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2048,31 +2052,31 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2080,7 +2084,7 @@
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S7" t="s" s="2">
         <v>36</v>
@@ -2098,13 +2102,13 @@
         <v>36</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA7" t="s" s="2">
         <v>36</v>
@@ -2122,19 +2126,19 @@
         <v>36</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>36</v>
@@ -2146,15 +2150,15 @@
         <v>36</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2165,7 +2169,7 @@
         <v>37</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>36</v>
@@ -2174,19 +2178,19 @@
         <v>36</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2236,19 +2240,19 @@
         <v>36</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>36</v>
@@ -2257,18 +2261,18 @@
         <v>36</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2279,7 +2283,7 @@
         <v>37</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>36</v>
@@ -2288,19 +2292,19 @@
         <v>36</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2350,19 +2354,19 @@
         <v>36</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>36</v>
@@ -2379,10 +2383,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2402,19 +2406,19 @@
         <v>36</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2464,7 +2468,7 @@
         <v>36</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>37</v>
@@ -2476,7 +2480,7 @@
         <v>36</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>36</v>
@@ -2493,10 +2497,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2507,7 +2511,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>36</v>
@@ -2519,13 +2523,13 @@
         <v>36</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2576,13 +2580,13 @@
         <v>36</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>36</v>
@@ -2594,7 +2598,7 @@
         <v>36</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>36</v>
@@ -2605,14 +2609,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2631,16 +2635,16 @@
         <v>36</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2690,7 +2694,7 @@
         <v>36</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>37</v>
@@ -2702,13 +2706,13 @@
         <v>36</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>36</v>
@@ -2719,14 +2723,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2739,25 +2743,25 @@
         <v>36</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>36</v>
@@ -2806,7 +2810,7 @@
         <v>36</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>37</v>
@@ -2818,13 +2822,13 @@
         <v>36</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>36</v>
@@ -2835,10 +2839,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2846,10 +2850,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>36</v>
@@ -2858,16 +2862,16 @@
         <v>36</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2918,19 +2922,19 @@
         <v>36</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>36</v>
@@ -2947,10 +2951,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2958,10 +2962,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>36</v>
@@ -2970,16 +2974,16 @@
         <v>36</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3030,19 +3034,19 @@
         <v>36</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>36</v>
@@ -3059,10 +3063,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3070,10 +3074,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>36</v>
@@ -3082,16 +3086,16 @@
         <v>36</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3130,19 +3134,19 @@
         <v>36</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>37</v>
@@ -3154,7 +3158,7 @@
         <v>36</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>36</v>
@@ -3171,10 +3175,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3185,7 +3189,7 @@
         <v>37</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>36</v>
@@ -3197,13 +3201,13 @@
         <v>36</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3254,13 +3258,13 @@
         <v>36</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>36</v>
@@ -3272,7 +3276,7 @@
         <v>36</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>36</v>
@@ -3283,14 +3287,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3309,16 +3313,16 @@
         <v>36</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3368,7 +3372,7 @@
         <v>36</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>37</v>
@@ -3380,13 +3384,13 @@
         <v>36</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>36</v>
@@ -3397,14 +3401,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3417,25 +3421,25 @@
         <v>36</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>36</v>
@@ -3484,7 +3488,7 @@
         <v>36</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>37</v>
@@ -3496,13 +3500,13 @@
         <v>36</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>36</v>
@@ -3513,10 +3517,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3536,16 +3540,16 @@
         <v>36</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3596,7 +3600,7 @@
         <v>36</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>37</v>
@@ -3608,7 +3612,7 @@
         <v>36</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>36</v>
@@ -3625,10 +3629,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3636,31 +3640,31 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3710,19 +3714,19 @@
         <v>36</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>36</v>
@@ -3739,10 +3743,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3750,28 +3754,28 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3822,13 +3826,13 @@
         <v>36</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>36</v>
@@ -3851,10 +3855,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3865,7 +3869,7 @@
         <v>37</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>36</v>
@@ -3874,16 +3878,16 @@
         <v>36</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3934,19 +3938,19 @@
         <v>36</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>36</v>
@@ -3963,10 +3967,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3977,7 +3981,7 @@
         <v>37</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>36</v>
@@ -3989,13 +3993,13 @@
         <v>36</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4046,13 +4050,13 @@
         <v>36</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>36</v>
@@ -4064,7 +4068,7 @@
         <v>36</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>36</v>
@@ -4075,14 +4079,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4101,16 +4105,16 @@
         <v>36</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4160,7 +4164,7 @@
         <v>36</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>37</v>
@@ -4172,13 +4176,13 @@
         <v>36</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>36</v>
@@ -4189,14 +4193,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4209,25 +4213,25 @@
         <v>36</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>36</v>
@@ -4276,7 +4280,7 @@
         <v>36</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>37</v>
@@ -4288,13 +4292,13 @@
         <v>36</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>36</v>
@@ -4305,10 +4309,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4319,7 +4323,7 @@
         <v>37</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>36</v>
@@ -4328,19 +4332,19 @@
         <v>36</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4366,13 +4370,13 @@
         <v>36</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>36</v>
@@ -4390,19 +4394,19 @@
         <v>36</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>36</v>
@@ -4419,10 +4423,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4433,7 +4437,7 @@
         <v>37</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>36</v>
@@ -4442,19 +4446,19 @@
         <v>36</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4504,19 +4508,19 @@
         <v>36</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>36</v>
@@ -4533,10 +4537,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4547,25 +4551,25 @@
         <v>37</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4616,19 +4620,19 @@
         <v>36</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>36</v>
@@ -4645,10 +4649,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4659,7 +4663,7 @@
         <v>37</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>36</v>
@@ -4671,13 +4675,13 @@
         <v>36</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4728,13 +4732,13 @@
         <v>36</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>36</v>
@@ -4746,7 +4750,7 @@
         <v>36</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>36</v>
@@ -4757,14 +4761,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4783,16 +4787,16 @@
         <v>36</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4842,7 +4846,7 @@
         <v>36</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>37</v>
@@ -4854,13 +4858,13 @@
         <v>36</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>36</v>
@@ -4871,14 +4875,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4891,25 +4895,25 @@
         <v>36</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>36</v>
@@ -4958,7 +4962,7 @@
         <v>36</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>37</v>
@@ -4970,13 +4974,13 @@
         <v>36</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>36</v>
@@ -4987,10 +4991,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4998,10 +5002,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>36</v>
@@ -5010,16 +5014,16 @@
         <v>36</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5046,13 +5050,13 @@
         <v>36</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>36</v>
@@ -5070,19 +5074,19 @@
         <v>36</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>36</v>
@@ -5099,10 +5103,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5110,10 +5114,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>36</v>
@@ -5122,19 +5126,19 @@
         <v>36</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5184,19 +5188,19 @@
         <v>36</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>36</v>
@@ -5213,10 +5217,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5227,7 +5231,7 @@
         <v>37</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>36</v>
@@ -5236,16 +5240,16 @@
         <v>36</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5296,19 +5300,19 @@
         <v>36</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>36</v>
@@ -5325,10 +5329,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5339,7 +5343,7 @@
         <v>37</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>36</v>
@@ -5348,16 +5352,16 @@
         <v>36</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5408,19 +5412,19 @@
         <v>36</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>36</v>
@@ -5437,10 +5441,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5451,7 +5455,7 @@
         <v>37</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>36</v>
@@ -5460,16 +5464,16 @@
         <v>36</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5520,19 +5524,19 @@
         <v>36</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>36</v>
@@ -5549,10 +5553,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5563,7 +5567,7 @@
         <v>37</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>36</v>
@@ -5572,16 +5576,16 @@
         <v>36</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5632,19 +5636,19 @@
         <v>36</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>36</v>
@@ -5661,10 +5665,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5675,7 +5679,7 @@
         <v>37</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>36</v>
@@ -5684,16 +5688,16 @@
         <v>36</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5744,19 +5748,19 @@
         <v>36</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>36</v>
@@ -5773,10 +5777,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5787,7 +5791,7 @@
         <v>37</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>36</v>
@@ -5799,13 +5803,13 @@
         <v>36</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5856,13 +5860,13 @@
         <v>36</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>36</v>
@@ -5874,7 +5878,7 @@
         <v>36</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>36</v>
@@ -5885,14 +5889,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -5911,16 +5915,16 @@
         <v>36</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -5970,7 +5974,7 @@
         <v>36</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>37</v>
@@ -5982,13 +5986,13 @@
         <v>36</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>36</v>
@@ -5999,14 +6003,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6019,25 +6023,25 @@
         <v>36</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>36</v>
@@ -6086,7 +6090,7 @@
         <v>36</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>37</v>
@@ -6098,13 +6102,13 @@
         <v>36</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>36</v>
@@ -6115,10 +6119,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6126,10 +6130,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>36</v>
@@ -6138,16 +6142,16 @@
         <v>36</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6198,19 +6202,19 @@
         <v>36</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>36</v>
@@ -6227,10 +6231,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6241,7 +6245,7 @@
         <v>37</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>36</v>
@@ -6250,16 +6254,16 @@
         <v>36</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6310,19 +6314,19 @@
         <v>36</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>36</v>
@@ -6339,10 +6343,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6353,7 +6357,7 @@
         <v>37</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>36</v>
@@ -6362,19 +6366,19 @@
         <v>36</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6424,19 +6428,19 @@
         <v>36</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>36</v>
@@ -6453,10 +6457,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6467,7 +6471,7 @@
         <v>37</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>36</v>
@@ -6476,19 +6480,19 @@
         <v>36</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6538,19 +6542,19 @@
         <v>36</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>36</v>
@@ -6567,10 +6571,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6581,7 +6585,7 @@
         <v>37</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>36</v>
@@ -6590,19 +6594,19 @@
         <v>36</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6652,13 +6656,13 @@
         <v>36</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>36</v>
@@ -6681,41 +6685,41 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6766,7 +6770,7 @@
         <v>36</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>37</v>
@@ -6778,7 +6782,7 @@
         <v>36</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>227</v>
+        <v>141</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>36</v>
@@ -6795,10 +6799,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6809,7 +6813,7 @@
         <v>37</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>36</v>
@@ -6821,13 +6825,13 @@
         <v>36</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6878,13 +6882,13 @@
         <v>36</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>36</v>
@@ -6896,7 +6900,7 @@
         <v>36</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>36</v>
@@ -6907,14 +6911,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -6933,16 +6937,16 @@
         <v>36</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -6992,7 +6996,7 @@
         <v>36</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>37</v>
@@ -7004,13 +7008,13 @@
         <v>36</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>36</v>
@@ -7021,14 +7025,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7041,25 +7045,25 @@
         <v>36</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>36</v>
@@ -7108,7 +7112,7 @@
         <v>36</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>37</v>
@@ -7120,13 +7124,13 @@
         <v>36</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>36</v>
@@ -7137,10 +7141,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7160,16 +7164,16 @@
         <v>36</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7220,7 +7224,7 @@
         <v>36</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>37</v>
@@ -7232,7 +7236,7 @@
         <v>36</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>36</v>
@@ -7249,10 +7253,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7263,7 +7267,7 @@
         <v>37</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>36</v>
@@ -7272,19 +7276,19 @@
         <v>36</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7334,19 +7338,19 @@
         <v>36</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>36</v>
@@ -7363,10 +7367,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7377,7 +7381,7 @@
         <v>37</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>36</v>
@@ -7389,16 +7393,16 @@
         <v>36</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7448,13 +7452,13 @@
         <v>36</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>36</v>
@@ -7463,10 +7467,10 @@
         <v>36</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>36</v>
@@ -7477,10 +7481,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7491,7 +7495,7 @@
         <v>37</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>36</v>
@@ -7500,16 +7504,16 @@
         <v>36</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7560,19 +7564,19 @@
         <v>36</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>36</v>
@@ -7589,10 +7593,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7603,7 +7607,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>36</v>
@@ -7615,13 +7619,13 @@
         <v>36</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7672,13 +7676,13 @@
         <v>36</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>36</v>
@@ -7690,7 +7694,7 @@
         <v>36</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>36</v>
@@ -7701,14 +7705,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -7727,16 +7731,16 @@
         <v>36</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -7786,7 +7790,7 @@
         <v>36</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>37</v>
@@ -7798,13 +7802,13 @@
         <v>36</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>36</v>
@@ -7815,14 +7819,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -7835,25 +7839,25 @@
         <v>36</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>36</v>
@@ -7902,7 +7906,7 @@
         <v>36</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>37</v>
@@ -7914,13 +7918,13 @@
         <v>36</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>36</v>
@@ -7931,10 +7935,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7945,7 +7949,7 @@
         <v>37</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>36</v>
@@ -7954,19 +7958,19 @@
         <v>36</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -7992,13 +7996,13 @@
         <v>36</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>36</v>
@@ -8016,19 +8020,19 @@
         <v>36</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>36</v>
@@ -8045,10 +8049,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8059,7 +8063,7 @@
         <v>37</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>36</v>
@@ -8068,19 +8072,19 @@
         <v>36</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8130,19 +8134,19 @@
         <v>36</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>36</v>
@@ -8159,10 +8163,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8173,7 +8177,7 @@
         <v>37</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>36</v>
@@ -8182,16 +8186,16 @@
         <v>36</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8242,19 +8246,19 @@
         <v>36</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>36</v>
@@ -8271,10 +8275,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8285,7 +8289,7 @@
         <v>37</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>36</v>
@@ -8297,13 +8301,13 @@
         <v>36</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8354,13 +8358,13 @@
         <v>36</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>36</v>
@@ -8372,7 +8376,7 @@
         <v>36</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>36</v>
@@ -8383,14 +8387,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8409,16 +8413,16 @@
         <v>36</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -8468,7 +8472,7 @@
         <v>36</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>37</v>
@@ -8480,13 +8484,13 @@
         <v>36</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>36</v>
@@ -8497,14 +8501,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8517,25 +8521,25 @@
         <v>36</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>36</v>
@@ -8584,7 +8588,7 @@
         <v>36</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>37</v>
@@ -8596,13 +8600,13 @@
         <v>36</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>36</v>
@@ -8613,10 +8617,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8624,10 +8628,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>36</v>
@@ -8636,16 +8640,16 @@
         <v>36</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8672,13 +8676,13 @@
         <v>36</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>36</v>
@@ -8696,19 +8700,19 @@
         <v>36</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>36</v>
@@ -8725,10 +8729,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8736,10 +8740,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>36</v>
@@ -8748,19 +8752,19 @@
         <v>36</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -8810,19 +8814,19 @@
         <v>36</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>36</v>
@@ -8839,10 +8843,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8853,7 +8857,7 @@
         <v>37</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>36</v>
@@ -8862,16 +8866,16 @@
         <v>36</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8922,19 +8926,19 @@
         <v>36</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>36</v>
@@ -8951,10 +8955,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8965,7 +8969,7 @@
         <v>37</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>36</v>
@@ -8974,16 +8978,16 @@
         <v>36</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9034,19 +9038,19 @@
         <v>36</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>36</v>
@@ -9063,10 +9067,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9077,7 +9081,7 @@
         <v>37</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>36</v>
@@ -9086,16 +9090,16 @@
         <v>36</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9146,19 +9150,19 @@
         <v>36</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>36</v>
@@ -9175,10 +9179,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9189,7 +9193,7 @@
         <v>37</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>36</v>
@@ -9198,16 +9202,16 @@
         <v>36</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9258,19 +9262,19 @@
         <v>36</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>36</v>
@@ -9287,10 +9291,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9301,7 +9305,7 @@
         <v>37</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>36</v>
@@ -9310,16 +9314,16 @@
         <v>36</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9370,19 +9374,19 @@
         <v>36</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>36</v>
@@ -9399,10 +9403,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9413,7 +9417,7 @@
         <v>37</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>36</v>
@@ -9425,13 +9429,13 @@
         <v>36</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9482,13 +9486,13 @@
         <v>36</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>36</v>
@@ -9500,7 +9504,7 @@
         <v>36</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>36</v>
@@ -9511,14 +9515,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -9537,16 +9541,16 @@
         <v>36</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -9596,7 +9600,7 @@
         <v>36</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>37</v>
@@ -9608,13 +9612,13 @@
         <v>36</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>36</v>
@@ -9625,14 +9629,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -9645,25 +9649,25 @@
         <v>36</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>36</v>
@@ -9712,7 +9716,7 @@
         <v>36</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>37</v>
@@ -9724,13 +9728,13 @@
         <v>36</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>36</v>
@@ -9741,10 +9745,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9752,10 +9756,10 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>36</v>
@@ -9764,16 +9768,16 @@
         <v>36</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9824,19 +9828,19 @@
         <v>36</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>36</v>
@@ -9853,10 +9857,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9867,7 +9871,7 @@
         <v>37</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>36</v>
@@ -9876,16 +9880,16 @@
         <v>36</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -9936,19 +9940,19 @@
         <v>36</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>36</v>
@@ -9965,10 +9969,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9979,7 +9983,7 @@
         <v>37</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>36</v>
@@ -9988,19 +9992,19 @@
         <v>36</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10050,19 +10054,19 @@
         <v>36</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>36</v>
@@ -10079,10 +10083,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10093,7 +10097,7 @@
         <v>37</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>36</v>
@@ -10102,19 +10106,19 @@
         <v>36</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10164,19 +10168,19 @@
         <v>36</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>36</v>
@@ -10193,10 +10197,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10207,7 +10211,7 @@
         <v>37</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>36</v>
@@ -10216,19 +10220,19 @@
         <v>36</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10278,13 +10282,13 @@
         <v>36</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>36</v>
@@ -10307,41 +10311,41 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>36</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10392,7 +10396,7 @@
         <v>36</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>37</v>
@@ -10404,7 +10408,7 @@
         <v>36</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>227</v>
+        <v>141</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>36</v>
@@ -10421,10 +10425,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10435,7 +10439,7 @@
         <v>37</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>36</v>
@@ -10447,13 +10451,13 @@
         <v>36</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10504,13 +10508,13 @@
         <v>36</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>36</v>
@@ -10522,7 +10526,7 @@
         <v>36</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>36</v>
@@ -10533,14 +10537,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -10559,16 +10563,16 @@
         <v>36</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -10618,7 +10622,7 @@
         <v>36</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>37</v>
@@ -10630,13 +10634,13 @@
         <v>36</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>36</v>
@@ -10647,14 +10651,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -10667,25 +10671,25 @@
         <v>36</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>36</v>
@@ -10734,7 +10738,7 @@
         <v>36</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>37</v>
@@ -10746,13 +10750,13 @@
         <v>36</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>36</v>
@@ -10763,10 +10767,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10786,16 +10790,16 @@
         <v>36</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10846,7 +10850,7 @@
         <v>36</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>37</v>
@@ -10858,7 +10862,7 @@
         <v>36</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>36</v>
@@ -10875,10 +10879,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10889,7 +10893,7 @@
         <v>37</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>36</v>
@@ -10898,19 +10902,19 @@
         <v>36</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -10960,19 +10964,19 @@
         <v>36</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>36</v>
@@ -10989,21 +10993,21 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>36</v>
@@ -11015,13 +11019,13 @@
         <v>36</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11072,28 +11076,28 @@
         <v>36</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>36</v>
@@ -11101,10 +11105,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11115,7 +11119,7 @@
         <v>37</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>36</v>
@@ -11124,16 +11128,16 @@
         <v>36</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11184,19 +11188,19 @@
         <v>36</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>36</v>
@@ -11213,10 +11217,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11227,7 +11231,7 @@
         <v>37</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>36</v>
@@ -11239,13 +11243,13 @@
         <v>36</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11296,13 +11300,13 @@
         <v>36</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>36</v>
@@ -11314,7 +11318,7 @@
         <v>36</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>36</v>
@@ -11325,14 +11329,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -11351,16 +11355,16 @@
         <v>36</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -11410,7 +11414,7 @@
         <v>36</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>37</v>
@@ -11422,13 +11426,13 @@
         <v>36</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>36</v>
@@ -11439,14 +11443,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -11459,25 +11463,25 @@
         <v>36</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>36</v>
@@ -11526,7 +11530,7 @@
         <v>36</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>37</v>
@@ -11538,13 +11542,13 @@
         <v>36</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>36</v>
@@ -11555,10 +11559,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11569,7 +11573,7 @@
         <v>37</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>36</v>
@@ -11578,19 +11582,19 @@
         <v>36</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -11616,13 +11620,13 @@
         <v>36</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>36</v>
@@ -11640,19 +11644,19 @@
         <v>36</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>36</v>
@@ -11669,10 +11673,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11683,7 +11687,7 @@
         <v>37</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>36</v>
@@ -11692,19 +11696,19 @@
         <v>36</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -11754,19 +11758,19 @@
         <v>36</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>36</v>
@@ -11783,10 +11787,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -11797,7 +11801,7 @@
         <v>37</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>36</v>
@@ -11806,16 +11810,16 @@
         <v>36</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -11866,19 +11870,19 @@
         <v>36</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>36</v>
@@ -11895,10 +11899,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11909,7 +11913,7 @@
         <v>37</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>36</v>
@@ -11921,13 +11925,13 @@
         <v>36</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -11978,13 +11982,13 @@
         <v>36</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>36</v>
@@ -11996,7 +12000,7 @@
         <v>36</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>36</v>
@@ -12007,14 +12011,14 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -12033,16 +12037,16 @@
         <v>36</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -12092,7 +12096,7 @@
         <v>36</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>37</v>
@@ -12104,13 +12108,13 @@
         <v>36</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>36</v>
@@ -12121,14 +12125,14 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -12141,25 +12145,25 @@
         <v>36</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>36</v>
@@ -12208,7 +12212,7 @@
         <v>36</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>37</v>
@@ -12220,13 +12224,13 @@
         <v>36</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>36</v>
@@ -12237,10 +12241,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12248,10 +12252,10 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>36</v>
@@ -12260,16 +12264,16 @@
         <v>36</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -12296,13 +12300,13 @@
         <v>36</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>36</v>
@@ -12320,19 +12324,19 @@
         <v>36</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>36</v>
@@ -12349,10 +12353,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12360,10 +12364,10 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>36</v>
@@ -12372,19 +12376,19 @@
         <v>36</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -12434,19 +12438,19 @@
         <v>36</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>36</v>
@@ -12463,10 +12467,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12477,7 +12481,7 @@
         <v>37</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>36</v>
@@ -12486,16 +12490,16 @@
         <v>36</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -12546,19 +12550,19 @@
         <v>36</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>36</v>
@@ -12575,10 +12579,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12589,7 +12593,7 @@
         <v>37</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>36</v>
@@ -12598,16 +12602,16 @@
         <v>36</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -12658,19 +12662,19 @@
         <v>36</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>36</v>
@@ -12687,10 +12691,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12701,7 +12705,7 @@
         <v>37</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>36</v>
@@ -12710,16 +12714,16 @@
         <v>36</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -12770,19 +12774,19 @@
         <v>36</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>36</v>
@@ -12799,10 +12803,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12813,7 +12817,7 @@
         <v>37</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>36</v>
@@ -12822,16 +12826,16 @@
         <v>36</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -12882,19 +12886,19 @@
         <v>36</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>36</v>
@@ -12911,10 +12915,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -12925,7 +12929,7 @@
         <v>37</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>36</v>
@@ -12934,16 +12938,16 @@
         <v>36</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -12994,19 +12998,19 @@
         <v>36</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>36</v>
@@ -13023,10 +13027,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13037,7 +13041,7 @@
         <v>37</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>36</v>
@@ -13049,13 +13053,13 @@
         <v>36</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13106,13 +13110,13 @@
         <v>36</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>36</v>
@@ -13124,7 +13128,7 @@
         <v>36</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>36</v>
@@ -13135,14 +13139,14 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -13161,16 +13165,16 @@
         <v>36</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -13220,7 +13224,7 @@
         <v>36</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>37</v>
@@ -13232,13 +13236,13 @@
         <v>36</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>36</v>
@@ -13249,14 +13253,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -13269,25 +13273,25 @@
         <v>36</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>36</v>
@@ -13336,7 +13340,7 @@
         <v>36</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>37</v>
@@ -13348,13 +13352,13 @@
         <v>36</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>36</v>
@@ -13365,10 +13369,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13376,10 +13380,10 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>36</v>
@@ -13388,16 +13392,16 @@
         <v>36</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -13448,19 +13452,19 @@
         <v>36</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>36</v>
@@ -13477,10 +13481,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13491,7 +13495,7 @@
         <v>37</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>36</v>
@@ -13500,16 +13504,16 @@
         <v>36</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -13560,19 +13564,19 @@
         <v>36</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>36</v>
@@ -13589,10 +13593,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13603,7 +13607,7 @@
         <v>37</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>36</v>
@@ -13612,19 +13616,19 @@
         <v>36</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -13674,19 +13678,19 @@
         <v>36</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>36</v>
@@ -13703,10 +13707,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13717,7 +13721,7 @@
         <v>37</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>36</v>
@@ -13726,19 +13730,19 @@
         <v>36</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -13788,19 +13792,19 @@
         <v>36</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>36</v>
@@ -13817,10 +13821,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13831,7 +13835,7 @@
         <v>37</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>36</v>
@@ -13840,19 +13844,19 @@
         <v>36</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -13902,13 +13906,13 @@
         <v>36</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>36</v>
@@ -13931,10 +13935,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13945,7 +13949,7 @@
         <v>37</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>36</v>
@@ -13954,22 +13958,22 @@
         <v>36</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>36</v>
@@ -14018,19 +14022,19 @@
         <v>36</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>36</v>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-14T16:14:11+00:00</t>
+    <t>2023-10-18T23:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -10793,7 +10793,7 @@
         <v>47</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L84" t="s" s="2">
         <v>146</v>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T23:27:00+00:00</t>
+    <t>2023-10-20T17:32:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T17:32:48+00:00</t>
+    <t>2023-10-20T21:39:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T21:39:43+00:00</t>
+    <t>2023-10-25T21:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T19:46:50+00:00</t>
+    <t>2024-01-29T03:29:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T03:29:58+00:00</t>
+    <t>2024-01-29T15:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T15:29:51+00:00</t>
+    <t>2024-01-30T22:14:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:14:57+00:00</t>
+    <t>2024-01-30T22:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:36:39+00:00</t>
+    <t>2024-02-05T17:54:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T17:54:19+00:00</t>
+    <t>2024-02-22T21:56:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T21:56:41+00:00</t>
+    <t>2024-02-22T22:07:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4069" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4069" uniqueCount="350">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T22:07:28+00:00</t>
+    <t>2024-03-08T19:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1009,10 +1009,6 @@
   </si>
   <si>
     <t>The Patient Profile is based upon the core FHIR Patient Resource</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -11331,16 +11327,16 @@
         <v>76</v>
       </c>
       <c r="AJ87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL87" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AK87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL87" t="s" s="2">
+      <c r="AM87" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>76</v>
@@ -11348,7 +11344,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>196</v>
@@ -11460,7 +11456,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>200</v>
@@ -11572,7 +11568,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>201</v>
@@ -11686,7 +11682,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>202</v>
@@ -11802,7 +11798,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>203</v>
@@ -11916,7 +11912,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>209</v>
@@ -12030,7 +12026,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>214</v>
@@ -12142,7 +12138,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>218</v>
@@ -12254,7 +12250,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>219</v>
@@ -12368,7 +12364,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>220</v>
@@ -12484,7 +12480,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>221</v>
@@ -12596,7 +12592,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>226</v>
@@ -12710,7 +12706,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>230</v>
@@ -12822,7 +12818,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>233</v>
@@ -12934,7 +12930,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>235</v>
@@ -13046,7 +13042,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>238</v>
@@ -13158,7 +13154,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>241</v>
@@ -13270,7 +13266,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>245</v>
@@ -13382,7 +13378,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>246</v>
@@ -13496,7 +13492,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>247</v>
@@ -13612,7 +13608,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>248</v>
@@ -13724,7 +13720,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>251</v>
@@ -13836,7 +13832,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>254</v>
@@ -13950,7 +13946,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>258</v>
@@ -14064,7 +14060,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>262</v>
@@ -14178,10 +14174,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14204,19 +14200,19 @@
         <v>87</v>
       </c>
       <c r="K113" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L113" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L113" t="s" s="2">
+      <c r="M113" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="M113" t="s" s="2">
+      <c r="N113" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="N113" t="s" s="2">
+      <c r="O113" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>76</v>
@@ -14265,7 +14261,7 @@
         <v>76</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-08T19:30:19+00:00</t>
+    <t>2024-03-25T22:09:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:09:10+00:00</t>
+    <t>2024-04-16T20:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>BC Ministry of Health (https://www2.gov.bc.ca/gov/content/governments/organizational-structure/ministries-organizations/ministries/health)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
-bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}invariant-update-1:When Updating a Patient with the UpdatePatient Operation at least one of name, telecom, gender, address, birthDate or deceased attributes must be present. {entry.resource.ofType(Patient).name.count()&gt;=1 or entry.resource.ofType(Patient).telecom.count()&gt;=1 or entry.resource.ofType(Patient).gender.count() &gt;=1 or entry.resource.ofType(Patient).deceased[x].count()&gt;=1 or entry.resource.ofType(Patient).address.count()&gt;=1 or entry.resource.ofType(Patient).communication.count()&gt;=1}</t>
+bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}invariant-update-1:When Updating a Patient with the UpdatePatient Operation at least one of name, telecom, gender, address, birthDate or deceased attributes must be present. {entry.resource.ofType(Patient).name.count()&gt;=1 or entry.resource.ofType(Patient).telecom.count()&gt;=1 or entry.resource.ofType(Patient).gender.count() &gt;=1 or entry.resource.ofType(Patient).deceased.count()&gt;=1 or entry.resource.ofType(Patient).address.count()&gt;=1 or entry.resource.ofType(Patient).communication.count()&gt;=1}</t>
   </si>
   <si>
     <t>N/A</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T20:55:14+00:00</t>
+    <t>2024-04-16T21:07:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T21:07:01+00:00</t>
+    <t>2024-04-23T21:08:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-23T21:08:53+00:00</t>
+    <t>2024-04-26T16:50:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T16:50:56+00:00</t>
+    <t>2024-04-28T02:00:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-28T02:00:16+00:00</t>
+    <t>2024-05-03T17:46:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T17:46:35+00:00</t>
+    <t>2024-05-03T18:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T18:19:03+00:00</t>
+    <t>2024-05-03T21:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:10:00+00:00</t>
+    <t>2024-05-03T21:38:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:38:12+00:00</t>
+    <t>2024-05-14T21:02:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-14T21:02:37+00:00</t>
+    <t>2024-06-07T23:38:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
